--- a/2017/ML/roc/roc_annpca.xlsx
+++ b/2017/ML/roc/roc_annpca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jg_te\PycharmProjects\DDoS_Detection\2017\ML\roc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{076BDBEB-EAB9-4D21-B92F-B89A94642DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEF6866-13A8-46C8-AF52-190E25CE3974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test 0" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="Report" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="21">
   <si>
     <t>n_comp</t>
   </si>
@@ -84,6 +83,21 @@
   </si>
   <si>
     <t>Quant, Ataques Total</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Coluna1</t>
+  </si>
+  <si>
+    <t>Quant, de Ataques2</t>
   </si>
 </sst>
 </file>
@@ -155,7 +169,73 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -166,6 +246,68 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{30DE0A7B-CD23-4933-9B74-7BA97BA93C06}" name="Tabela1" displayName="Tabela1" ref="A1:R28" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:R28" xr:uid="{30DE0A7B-CD23-4933-9B74-7BA97BA93C06}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R28">
+    <sortCondition descending="1" ref="P1:P28"/>
+  </sortState>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{39A3AEBF-39F7-4F60-9E01-60359D0DE731}" name="Coluna1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{9AD7F530-BC6F-4BC9-B391-1941E304D347}" name="n_comp">
+      <calculatedColumnFormula>AVERAGE('Test 0'!B2,'Test 1'!B2,'Test 2'!B2,'Test 3'!B2,'Test 4'!B2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{BDFE8645-C6BA-4E72-B0FC-418AE2B5C1F7}" name="Time(s)" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGE('Test 0'!C2,'Test 1'!C2,'Test 2'!C2,'Test 3'!C2,'Test 4'!C2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{6B072510-5454-434B-91C3-32B05D087F07}" name="Architecture"/>
+    <tableColumn id="5" xr3:uid="{2F547EEA-1417-4903-8815-BA60424A9D1A}" name="Alpha">
+      <calculatedColumnFormula>AVERAGE('Test 0'!E2,'Test 1'!E2,'Test 2'!E2,'Test 3'!E2,'Test 4'!E2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{FCDACC1D-0268-4BB9-A0C3-6100B31533C8}" name="Quant, de Ataques">
+      <calculatedColumnFormula>AVERAGE('Test 0'!F2,'Test 1'!F2,'Test 2'!F2,'Test 3'!F2,'Test 4'!F2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{B20621EF-81B0-40FD-B978-03F7F78356B1}" name="Quant, de Ataques2">
+      <calculatedColumnFormula>AVERAGE('Test 0'!G2,'Test 1'!G2,'Test 2'!G2,'Test 3'!G2,'Test 4'!G2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{9C91BEF5-A031-48C1-9960-5B017CF4C94D}" name="Quant, Ataques Total">
+      <calculatedColumnFormula>AVERAGE('Test 0'!H2,'Test 1'!H2,'Test 2'!H2,'Test 3'!H2,'Test 4'!H2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{570B9602-F555-42F5-BF7E-5532A41D1CD6}" name="Acertos">
+      <calculatedColumnFormula>AVERAGE('Test 0'!I2,'Test 1'!I2,'Test 2'!I2,'Test 3'!I2,'Test 4'!I2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{97D4265A-1834-4595-BFEF-A14397EEB72F}" name="Verd-Pos">
+      <calculatedColumnFormula>AVERAGE('Test 0'!J2,'Test 1'!J2,'Test 2'!J2,'Test 3'!J2,'Test 4'!J2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{87A0EEE8-50E1-43C4-932D-D43021BF98A8}" name="Verd-Neg">
+      <calculatedColumnFormula>AVERAGE('Test 0'!K2,'Test 1'!K2,'Test 2'!K2,'Test 3'!K2,'Test 4'!K2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{FCA4D056-9B8F-4E99-BCA1-21F96EA4CD7A}" name="Erros">
+      <calculatedColumnFormula>AVERAGE('Test 0'!L2,'Test 1'!L2,'Test 2'!L2,'Test 3'!L2,'Test 4'!L2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{97159549-C24E-4C99-A3DB-DBD9855FD5F1}" name="Falso-Pos">
+      <calculatedColumnFormula>AVERAGE('Test 0'!M2,'Test 1'!M2,'Test 2'!M2,'Test 3'!M2,'Test 4'!M2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{E8E042EF-47E1-46E7-B5AC-669CB6416BB4}" name="Falso-Neg">
+      <calculatedColumnFormula>AVERAGE('Test 0'!N2,'Test 1'!N2,'Test 2'!N2,'Test 3'!N2,'Test 4'!N2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{33F99E2E-5C45-4974-B987-E04FDF1E1AFD}" name="Taxa de Acertos">
+      <calculatedColumnFormula>AVERAGE('Test 0'!O2,'Test 1'!O2,'Test 2'!O2,'Test 3'!O2,'Test 4'!O2)*100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{20ACA83D-3BCE-4A94-8BEE-F8F7C414934D}" name="F1">
+      <calculatedColumnFormula>AVERAGE('Test 0'!P2,'Test 1'!P2,'Test 2'!P2,'Test 3'!P2,'Test 4'!Q2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{5E6500B0-9998-4F0F-88AB-481DC76FB154}" name="Recall">
+      <calculatedColumnFormula>AVERAGE('Test 0'!Q2,'Test 1'!Q2,'Test 2'!Q2,'Test 3'!Q2,'Test 4'!R2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{15B8D935-398E-4883-B4A3-FF1F0C12DB70}" name="Precision">
+      <calculatedColumnFormula>AVERAGE('Test 0'!R2,'Test 1'!R2,'Test 2'!R2,'Test 3'!R2,'Test 4'!S2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,15 +595,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +646,17 @@
       <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -551,8 +702,20 @@
       <c r="O2">
         <v>0.99968944819115102</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <f>100*J2/(J2+(1/2)*(M2+N2))</f>
+        <v>99.972637313719318</v>
+      </c>
+      <c r="Q2">
+        <f>100*J2/(J2+N2)</f>
+        <v>99.977945320732218</v>
+      </c>
+      <c r="R2">
+        <f>100*J2/(J2+M2)</f>
+        <v>99.967329870299579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -598,8 +761,20 @@
       <c r="O3">
         <v>0.99987485225613504</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <f t="shared" ref="P3:P28" si="0">100*J3/(J3+(1/2)*(M3+N3))</f>
+        <v>99.988972164927404</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q28" si="1">100*J3/(J3+N3)</f>
+        <v>99.984480040515265</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R28" si="2">100*J3/(J3+M3)</f>
+        <v>99.993464693003958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -645,8 +820,20 @@
       <c r="O4">
         <v>0.99965236737815399</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>99.96937237878609</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>99.982029520596626</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>99.956718441210583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -692,8 +879,20 @@
       <c r="O5">
         <v>0.99315859000208495</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>99.39958019428218</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>99.798240526698422</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>99.004092216684896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -739,8 +938,20 @@
       <c r="O6">
         <v>0.99331154835569702</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>99.413817336870196</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>99.950989601627143</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>98.882388117595724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -786,8 +997,20 @@
       <c r="O7">
         <v>0.99108669957588802</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>99.220513901443454</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>99.972227440922055</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>98.480020598979706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -833,8 +1056,20 @@
       <c r="O8">
         <v>0.980704071936777</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>98.327917709291441</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>99.984480040515265</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>96.725353225653507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -880,8 +1115,20 @@
       <c r="O9">
         <v>0.98015712994507398</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>98.281337192730305</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>99.984480040515265</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>96.635245448660257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -927,8 +1174,20 @@
       <c r="O10">
         <v>0.97938306797376495</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>98.215489296145321</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>99.984480040515265</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>96.508006591344525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -974,8 +1233,20 @@
       <c r="O11">
         <v>0.99965700247977896</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>99.969779142707793</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>99.977128480759333</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>99.962430885079343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1021,8 +1292,20 @@
       <c r="O12">
         <v>0.99961528656515797</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>99.966105986172877</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>99.980395840650857</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>99.951820215910757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1068,8 +1351,20 @@
       <c r="O13">
         <v>0.999638462073281</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>99.968147924306408</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>99.982846360569496</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>99.953453809029966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1115,8 +1410,20 @@
       <c r="O14">
         <v>0.99188857215694404</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>99.290014767692838</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>99.954256961518666</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>98.634542684647073</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1162,8 +1469,20 @@
       <c r="O15">
         <v>0.99286657859973504</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>99.37425034052329</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>99.820295205966204</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>98.932174025679629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1209,8 +1528,20 @@
       <c r="O16">
         <v>0.99152239912859996</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>99.257948953054822</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>99.919949682657673</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>98.604662410524284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1256,8 +1587,20 @@
       <c r="O17">
         <v>0.979726065493986</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>98.244656516120742</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>99.984480040515265</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>96.564346515829257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1303,8 +1646,20 @@
       <c r="O18">
         <v>0.98025446707918995</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>98.289623717217793</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>99.984480040515265</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>96.651269296063802</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1350,8 +1705,20 @@
       <c r="O19">
         <v>0.97885930149018496</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>98.170983562511779</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>99.984480040515265</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>96.422100735745914</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1397,8 +1764,20 @@
       <c r="O20">
         <v>0.99976360981714496</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>99.979170665762695</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>99.979579000677973</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>99.978762334182846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1444,8 +1823,20 @@
       <c r="O21">
         <v>0.99974043430902204</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>99.977125117438007</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>99.962425361247483</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>99.991829197545485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1491,8 +1882,20 @@
       <c r="O22">
         <v>0.99978678532526799</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>99.981213294453028</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>99.984480040515265</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>99.977946761849537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1538,8 +1941,20 @@
       <c r="O23">
         <v>0.99314931979883603</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>99.399172337536683</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>99.865221404474653</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>98.937452962264615</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1585,8 +2000,20 @@
       <c r="O24">
         <v>0.99208324642517698</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>99.307082525335304</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>99.975494800813578</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>98.647548581054394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1632,8 +2059,20 @@
       <c r="O25">
         <v>0.990794688173538</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>99.193921535202008</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>99.814577326156027</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>98.580936630228706</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1679,8 +2118,20 @@
       <c r="O26">
         <v>0.98258592319636595</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>98.488524128497573</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>99.984480040515265</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>97.036672955875119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1726,8 +2177,20 @@
       <c r="O27">
         <v>0.98059282949778603</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>98.318440129319868</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>99.984480040515265</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>96.707012609423884</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1772,6 +2235,18 @@
       </c>
       <c r="O28">
         <v>0.97878977496581598</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>98.165078754049972</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>99.984480040515265</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>96.410708800340259</v>
       </c>
     </row>
   </sheetData>
@@ -1781,15 +2256,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="R2" sqref="R2:R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1832,8 +2307,17 @@
       <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1879,8 +2363,20 @@
       <c r="O2">
         <v>0.99989802776425796</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <f>100*J2/(J2+(1/2)*(M2+N2))</f>
+        <v>99.991010501368862</v>
+      </c>
+      <c r="Q2">
+        <f>100*J2/(J2+N2)</f>
+        <v>99.99264483544863</v>
+      </c>
+      <c r="R2">
+        <f>100*J2/(J2+M2)</f>
+        <v>99.989376220713098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1926,8 +2422,20 @@
       <c r="O3">
         <v>0.99991656817075703</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <f t="shared" ref="P3:P28" si="0">100*J3/(J3+(1/2)*(M3+N3))</f>
+        <v>99.992645075878301</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q28" si="1">100*J3/(J3+N3)</f>
+        <v>99.995913797471459</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R28" si="2">100*J3/(J3+M3)</f>
+        <v>99.9893765679777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1973,8 +2481,20 @@
       <c r="O4">
         <v>0.99980532573176595</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>99.982837809123751</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>99.982020708874416</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>99.983654922728647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2020,8 +2540,20 @@
       <c r="O5">
         <v>0.99639389093605801</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>99.682971752701661</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>99.959137974714579</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>99.408327305532296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2067,8 +2599,20 @@
       <c r="O6">
         <v>0.99623629748082199</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>99.669170971789896</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>99.961589696231698</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>99.378458088575812</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2114,8 +2658,20 @@
       <c r="O7">
         <v>0.99246332475839505</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>99.33984555796448</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>99.981203468368705</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>98.706663546953038</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2161,8 +2717,20 @@
       <c r="O8">
         <v>0.98351294352128604</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>98.567152875966272</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>99.985289670897245</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>97.188681643417752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2208,8 +2776,20 @@
       <c r="O9">
         <v>0.98045377644904796</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>98.305792926675423</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>99.985289670897245</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>96.681786572259455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2255,8 +2835,20 @@
       <c r="O10">
         <v>0.97911886718116203</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>98.192178815786832</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>99.985289670897245</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>96.462249274631006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2302,8 +2894,20 @@
       <c r="O11">
         <v>0.99991193306913195</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>99.992236500704848</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>99.995913797471459</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>99.988559474389561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2349,8 +2953,20 @@
       <c r="O12">
         <v>0.999893392662634</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>99.990602156600758</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>99.995096556965748</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>99.986108160230117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2396,8 +3012,20 @@
       <c r="O13">
         <v>0.99973116410577301</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>99.976299444262835</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>99.973848303817334</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>99.978750704904499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2443,8 +3071,20 @@
       <c r="O14">
         <v>0.99554103223713097</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>99.608385914919594</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>99.984472430391534</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>99.23511805786498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2490,8 +3130,20 @@
       <c r="O15">
         <v>0.99418294746112301</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>99.489602947695488</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>99.961589696231698</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>99.022052394676336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2537,8 +3189,20 @@
       <c r="O16">
         <v>0.99174951910820597</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>99.27779671194638</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>99.984472430391534</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>98.581040248176947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2584,8 +3248,20 @@
       <c r="O17">
         <v>0.98049549236366995</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>98.309347604239491</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>99.985289670897245</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>96.688663215711074</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2631,8 +3307,20 @@
       <c r="O18">
         <v>0.97917912350228198</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>98.197301570739455</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>99.985289670897245</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>96.472137455744019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2678,8 +3366,20 @@
       <c r="O19">
         <v>0.97789983545389203</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>98.088656206656026</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>99.985289670897245</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>96.262638184035566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2725,8 +3425,20 @@
       <c r="O20">
         <v>0.99985167674801201</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>99.986925540955738</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>99.997548278482881</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>99.976305060095271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2772,8 +3484,20 @@
       <c r="O21">
         <v>0.99985167674801201</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>99.986925540955738</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>99.997548278482881</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>99.976305060095271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2819,8 +3543,20 @@
       <c r="O22">
         <v>0.99980996083339102</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>99.983248554677132</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>99.995096556965748</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>99.971403359696708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2866,8 +3602,20 @@
       <c r="O23">
         <v>0.99608333912721003</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>99.655836724054367</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>99.980386227862994</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>99.333387463462159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2913,8 +3661,20 @@
       <c r="O24">
         <v>0.99205543581542999</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>99.304394409181668</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>99.985289670897245</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>98.632710152288354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2960,8 +3720,20 @@
       <c r="O25">
         <v>0.99290365941273195</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>99.377801619910343</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>99.920727670946277</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>98.840743734842363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3007,8 +3779,20 @@
       <c r="O26">
         <v>0.98254420728174396</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>98.484238657951508</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>99.985289670897245</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>97.027590746512502</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3054,8 +3838,20 @@
       <c r="O27">
         <v>0.98011541403045199</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>98.27697003775404</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>99.985289670897245</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>96.626045475726002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3100,6 +3896,18 @@
       </c>
       <c r="O28">
         <v>0.97759855384829297</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>98.063104403201308</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>99.985289670897245</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>96.213431896822897</v>
       </c>
     </row>
   </sheetData>
@@ -3109,15 +3917,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3160,8 +3968,17 @@
       <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3207,8 +4024,20 @@
       <c r="O2">
         <v>0.99986094695126104</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <f>100*J2/(J2+(1/2)*(M2+N2))</f>
+        <v>99.987744297012881</v>
+      </c>
+      <c r="Q2">
+        <f>100*J2/(J2+N2)</f>
+        <v>99.980392317056229</v>
+      </c>
+      <c r="R2">
+        <f>100*J2/(J2+M2)</f>
+        <v>99.995097358293222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3254,8 +4083,20 @@
       <c r="O3">
         <v>0.99987021715451097</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <f t="shared" ref="P3:P28" si="0">100*J3/(J3+(1/2)*(M3+N3))</f>
+        <v>99.988561624249357</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q28" si="1">100*J3/(J3+N3)</f>
+        <v>99.983660264213526</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R28" si="2">100*J3/(J3+M3)</f>
+        <v>99.993463464853861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3301,8 +4142,20 @@
       <c r="O4">
         <v>0.99978215022364303</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>99.980801045730274</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>99.982026290634877</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>99.979575830855197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3348,8 +4201,20 @@
       <c r="O5">
         <v>0.993969732786391</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>99.470821995257324</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>99.897876651334542</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>99.047403039237921</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3395,8 +4260,20 @@
       <c r="O6">
         <v>0.99352476303042903</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>99.432263832727131</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>99.945261885115315</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>98.924505110622334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3442,8 +4319,20 @@
       <c r="O7">
         <v>0.99142042689285903</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>99.249059803400527</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>99.933824070064787</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>98.573615923926184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3489,8 +4378,20 @@
       <c r="O8">
         <v>0.98326728313518197</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>98.546499923499994</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>99.98120930384556</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>97.15238359861867</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3536,8 +4437,20 @@
       <c r="O9">
         <v>0.983893021854504</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>98.600094267033526</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>99.98120930384556</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>97.256616069299852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3583,8 +4496,20 @@
       <c r="O10">
         <v>0.98025910218081502</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>98.289716210952406</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>99.984477251002858</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>96.651450774746891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3630,8 +4555,20 @@
       <c r="O11">
         <v>0.99981459593501498</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>99.983659329705702</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>99.977941356688262</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>99.989377956809136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3677,8 +4614,20 @@
       <c r="O12">
         <v>0.99980996083339102</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>99.98325101821554</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>99.97875834347758</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>99.987744096739931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3724,8 +4673,20 @@
       <c r="O13">
         <v>0.99978215022364303</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>99.980800732023155</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>99.980392317056229</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>99.981209150326791</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3771,8 +4732,20 @@
       <c r="O14">
         <v>0.99376578831490803</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>99.453369802440932</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>99.961601620901789</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>98.950279817552484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3818,8 +4791,20 @@
       <c r="O15">
         <v>0.99448422906672196</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>99.515188058144844</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>99.781047540461273</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>99.250741538336513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3865,8 +4850,20 @@
       <c r="O16">
         <v>0.99180977542932602</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>99.282870466195078</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>99.93055612290749</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>98.643526508492073</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3912,8 +4909,20 @@
       <c r="O17">
         <v>0.98059282949778603</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>98.318142927724736</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>99.984477251002858</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>96.706440142236275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3959,8 +4968,20 @@
       <c r="O18">
         <v>0.984027439801617</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>98.611614733160891</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>99.98120930384556</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>97.279035937711143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4006,8 +5027,20 @@
       <c r="O19">
         <v>0.98013395443695095</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>98.279060429632608</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>99.984477251002858</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>96.630845881136054</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4053,8 +5086,20 @@
       <c r="O20">
         <v>0.99968944819115102</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>99.972629265443018</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>99.966503541637735</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>99.978755740035623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4100,8 +5145,20 @@
       <c r="O21">
         <v>0.99980996083339102</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>99.983251428734832</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>99.98120930384556</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>99.985293637046965</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4147,8 +5204,20 @@
       <c r="O22">
         <v>0.99981459593501498</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>99.98366013071896</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>99.982843277424209</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>99.984476997361085</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4194,8 +5263,20 @@
       <c r="O23">
         <v>0.993608194859672</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>99.438986188238644</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>99.846406483607154</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>99.034877313539269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4241,8 +5322,20 @@
       <c r="O24">
         <v>0.99383067973765304</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>99.458685635037796</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>99.897876651334542</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>99.023339434087561</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4288,8 +5381,20 @@
       <c r="O25">
         <v>0.99086884979953105</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>99.200305264183413</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>99.825164827084748</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>98.583219705832519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4335,8 +5440,20 @@
       <c r="O26">
         <v>0.98057892419291204</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>98.316958152911781</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>99.984477251002858</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>96.704147669355919</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4382,8 +5499,20 @@
       <c r="O27">
         <v>0.98283621868409399</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>98.509613256110669</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>99.98120930384556</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>97.080708880039353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4428,6 +5557,18 @@
       </c>
       <c r="O28">
         <v>0.97939233817701399</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>98.215962441314559</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>99.984477251002858</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>96.508922868250679</v>
       </c>
     </row>
   </sheetData>
@@ -4438,15 +5579,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4489,8 +5630,17 @@
       <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4536,8 +5686,20 @@
       <c r="O2">
         <v>0.99991193306913195</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <f>100*J2/(J2+(1/2)*(M2+N2))</f>
+        <v>99.992239291243067</v>
+      </c>
+      <c r="Q2">
+        <f>100*J2/(J2+N2)</f>
+        <v>99.995915266283788</v>
+      </c>
+      <c r="R2">
+        <f>100*J2/(J2+M2)</f>
+        <v>99.988563586459293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4583,8 +5745,20 @@
       <c r="O3">
         <v>0.99993510857725498</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <f t="shared" ref="P3:P28" si="0">100*J3/(J3+(1/2)*(M3+N3))</f>
+        <v>99.994281559663762</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q28" si="1">100*J3/(J3+N3)</f>
+        <v>99.997549159770273</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R28" si="2">100*J3/(J3+M3)</f>
+        <v>99.9910141730997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4630,8 +5804,20 @@
       <c r="O4">
         <v>0.99982386613826502</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>99.984478138683741</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>99.985294958621651</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>99.9836613320916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4677,8 +5863,20 @@
       <c r="O5">
         <v>0.99397436788801596</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>99.471673575550682</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>99.977942437932469</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>98.970506174536808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4724,8 +5922,20 @@
       <c r="O6">
         <v>0.99339498018493999</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>99.420818819933586</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>99.917488378932575</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>98.929062525277033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4771,8 +5981,20 @@
       <c r="O7">
         <v>0.99223620477878904</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>99.320268970582859</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>99.972223810729773</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>98.676762301030536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4818,8 +6040,20 @@
       <c r="O8">
         <v>0.98405525041136499</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>98.614076789815073</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>99.982027171648681</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>97.283053663267168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4865,8 +6099,20 @@
       <c r="O9">
         <v>0.98653502978052798</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>98.827035124342359</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>99.977125491189227</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>97.703104042920103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4912,8 +6158,20 @@
       <c r="O10">
         <v>0.98210387262740695</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>98.447146264262642</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>99.985294958621651</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>96.955605551682609</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4959,8 +6217,20 @@
       <c r="O11">
         <v>0.999893392662634</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>99.990605534565503</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>99.995098319540546</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>99.986113153294454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5006,8 +6276,20 @@
       <c r="O12">
         <v>0.99990729796750799</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>99.991830866254944</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>99.995915266283788</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>99.987746799872568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5053,8 +6335,20 @@
       <c r="O13">
         <v>0.99982386613826502</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>99.984478138683741</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>99.985294958621651</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>99.9836613320916</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5100,8 +6394,20 @@
       <c r="O14">
         <v>0.99508679227791996</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>99.568755085435313</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>99.96977297050006</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>99.170941625537921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5147,8 +6453,20 @@
       <c r="O15">
         <v>0.993487682217432</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>99.429212150265485</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>99.972223810729773</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>98.892067494181532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5194,8 +6512,20 @@
       <c r="O16">
         <v>0.99189784236019296</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>99.290457711604347</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>99.91585448544609</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>98.672841249223467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5241,8 +6571,20 @@
       <c r="O17">
         <v>0.98301698764745404</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>98.525209103130706</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>99.985294958621651</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>97.107152775022811</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5288,8 +6630,20 @@
       <c r="O18">
         <v>0.98257201789149196</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>98.48715286998366</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>99.985294958621651</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>97.033243215387174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5335,8 +6689,20 @@
       <c r="O19">
         <v>0.97997172588008996</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>98.265348315328438</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>99.985294958621651</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>96.603574022037691</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5382,8 +6748,20 @@
       <c r="O20">
         <v>0.99988875756100903</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>99.990197039505929</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>99.994281372797303</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>99.986113039855582</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5429,8 +6807,20 @@
       <c r="O21">
         <v>0.99988875756100903</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>99.990197039505929</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>99.994281372797303</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>99.986113039855582</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5476,8 +6866,20 @@
       <c r="O22">
         <v>0.99977751512201896</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>99.980393758679853</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>99.982844118391924</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>99.977943519070692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5523,8 +6925,20 @@
       <c r="O23">
         <v>0.99439616213585402</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>99.508490631237876</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>99.981210224905439</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>99.040220118151652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5570,8 +6984,20 @@
       <c r="O24">
         <v>0.99469744374145397</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>99.533864119761063</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>99.781058272811194</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>99.287891720521884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5617,8 +7043,20 @@
       <c r="O25">
         <v>0.99142969709610795</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>99.249182790895986</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>99.837427598094877</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>98.667829288378627</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5664,8 +7102,20 @@
       <c r="O26">
         <v>0.98080140907089297</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>98.336011569982318</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>99.985294958621651</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>96.740255942077098</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5711,8 +7161,20 @@
       <c r="O27">
         <v>0.98346195740341602</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>98.563294758119724</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>99.985294958621651</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>97.181175013300091</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5757,6 +7219,18 @@
       </c>
       <c r="O28">
         <v>0.98181186122505704</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>98.422208104478457</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>99.985294958621651</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>96.907240983411853</v>
       </c>
     </row>
   </sheetData>
@@ -5766,15 +7240,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5817,8 +7291,17 @@
       <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5864,8 +7347,20 @@
       <c r="O2">
         <v>0.99977288002039399</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <f>100*J2/(J2+(1/2)*(M2+N2))</f>
+        <v>99.979972615617271</v>
+      </c>
+      <c r="Q2">
+        <f>100*J2/(J2+N2)</f>
+        <v>99.973843387281349</v>
+      </c>
+      <c r="R2">
+        <f>100*J2/(J2+M2)</f>
+        <v>99.986102595544651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5911,8 +7406,20 @@
       <c r="O3">
         <v>0.99994437878050402</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <f t="shared" ref="P3:P28" si="0">100*J3/(J3+(1/2)*(M3+N3))</f>
+        <v>99.995095755376283</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q28" si="1">100*J3/(J3+N3)</f>
+        <v>99.997547817557631</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R28" si="2">100*J3/(J3+M3)</f>
+        <v>99.992643813447103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5958,8 +7465,20 @@
       <c r="O4">
         <v>0.99988412245938496</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>99.989783282998971</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>99.99673042341017</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>99.982837107807484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6005,8 +7524,20 @@
       <c r="O5">
         <v>0.98961273725926402</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>99.092297285802815</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>98.214328727307759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6052,8 +7583,20 @@
       <c r="O6">
         <v>0.991879301953695</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>99.28895526749406</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>98.601460607135365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6099,8 +7642,20 @@
       <c r="O7">
         <v>0.98995109967785999</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>99.12160574359639</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>98.271928274177739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6146,8 +7701,20 @@
       <c r="O8">
         <v>0.97952212102250302</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>98.226158738316258</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>96.527098260787227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6193,8 +7760,20 @@
       <c r="O9">
         <v>0.97937843287213999</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>98.213934442682515</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>96.503490986548854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6240,8 +7819,20 @@
       <c r="O10">
         <v>0.97419638925583396</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>97.775095618533015</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>95.65975616431929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6287,8 +7878,20 @@
       <c r="O11">
         <v>0.99987485225613504</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>99.988966035823609</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>99.99673042341017</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>99.981202853897145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6334,8 +7937,20 @@
       <c r="O12">
         <v>0.99971725880089901</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>99.975069172827844</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>99.973843387281349</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>99.976294988433594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6381,8 +7996,20 @@
       <c r="O13">
         <v>0.999624556768407</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>99.96690514032629</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>99.995913029262709</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>99.937914076349344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6428,8 +8055,20 @@
       <c r="O14">
         <v>0.99332081855894605</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>99.414434732432028</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>98.849265032687654</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6475,8 +8114,20 @@
       <c r="O15">
         <v>0.99269971494124998</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>99.360330759764608</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>98.742341440576041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6522,8 +8173,20 @@
       <c r="O16">
         <v>0.98961273725926402</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>99.092297285802815</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>98.214328727307759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6569,8 +8232,20 @@
       <c r="O17">
         <v>0.97953139122575195</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>98.226947507046432</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>96.52862170735942</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6616,8 +8291,20 @@
       <c r="O18">
         <v>0.98088020579851198</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>98.341848527360497</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>96.750796877348122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6663,8 +8350,20 @@
       <c r="O19">
         <v>0.97519293610512403</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>97.859182873462984</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>95.820865124003191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6710,8 +8409,20 @@
       <c r="O20">
         <v>0.99985167674801201</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>99.986923083210058</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>99.997547817557631</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>99.976300606377592</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6757,8 +8468,20 @@
       <c r="O21">
         <v>0.99980996083339102</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>99.983245816562118</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>99.997547817557631</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>99.968947906026557</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6804,8 +8527,20 @@
       <c r="O22">
         <v>0.99981459593501498</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>99.983654388388075</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>99.997547817557631</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>99.969764819324368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6851,8 +8586,20 @@
       <c r="O23">
         <v>0.99376578831490803</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>99.453232028814057</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>98.926009494464253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6898,8 +8645,20 @@
       <c r="O24">
         <v>0.99152239912859996</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>99.257936910437166</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>98.540298868167724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6945,8 +8704,20 @@
       <c r="O25">
         <v>0.990164314352592</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>99.140082992932633</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>98.308258591313859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6992,8 +8763,20 @@
       <c r="O26">
         <v>0.978372615819601</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>98.128449493004752</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>96.338562832750526</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -7039,8 +8822,20 @@
       <c r="O27">
         <v>0.97978168671348098</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>98.248249052239288</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>96.569772949758431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -7085,6 +8880,18 @@
       </c>
       <c r="O28">
         <v>0.97538761037335697</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>97.875626110195398</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>95.852400952858574</v>
       </c>
     </row>
   </sheetData>
@@ -7094,15 +8901,34 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7119,7 +8945,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>15</v>
@@ -7145,728 +8971,881 @@
       <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE('Test 0'!B3,'Test 1'!B3,'Test 2'!B3,'Test 3'!B3,'Test 4'!B3)</f>
+        <v>49</v>
+      </c>
+      <c r="C2" s="4">
+        <f>AVERAGE('Test 0'!C3,'Test 1'!C3,'Test 2'!C3,'Test 3'!C3,'Test 4'!C3)</f>
+        <v>1.2447939814814817E-3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE('Test 0'!E3,'Test 1'!E3,'Test 2'!E3,'Test 3'!E3,'Test 4'!E3)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE('Test 0'!F3,'Test 1'!F3,'Test 2'!F3,'Test 3'!F3,'Test 4'!F3)</f>
+        <v>122386.8</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE('Test 0'!G3,'Test 1'!G3,'Test 2'!G3,'Test 3'!G3,'Test 4'!G3)</f>
+        <v>5640.2</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE('Test 0'!H3,'Test 1'!H3,'Test 2'!H3,'Test 3'!H3,'Test 4'!H3)</f>
+        <v>128027</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE('Test 0'!I3,'Test 1'!I3,'Test 2'!I3,'Test 3'!I3,'Test 4'!I3)</f>
+        <v>215725.2</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE('Test 0'!J3,'Test 1'!J3,'Test 2'!J3,'Test 3'!J3,'Test 4'!J3)</f>
+        <v>122376.8</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE('Test 0'!K3,'Test 1'!K3,'Test 2'!K3,'Test 3'!K3,'Test 4'!K3)</f>
+        <v>93348.4</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE('Test 0'!L3,'Test 1'!L3,'Test 2'!L3,'Test 3'!L3,'Test 4'!L3)</f>
+        <v>19.8</v>
+      </c>
+      <c r="M2">
+        <f>AVERAGE('Test 0'!M3,'Test 1'!M3,'Test 2'!M3,'Test 3'!M3,'Test 4'!M3)</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N2">
+        <f>AVERAGE('Test 0'!N3,'Test 1'!N3,'Test 2'!N3,'Test 3'!N3,'Test 4'!N3)</f>
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGE('Test 0'!O3,'Test 1'!O3,'Test 2'!O3,'Test 3'!O3,'Test 4'!O3)*100</f>
+        <v>99.990822498783245</v>
+      </c>
+      <c r="P2">
+        <f>AVERAGE('Test 0'!P3,'Test 1'!P3,'Test 2'!P3,'Test 3'!P3,'Test 4'!Q3)</f>
+        <v>99.992401648455285</v>
+      </c>
+      <c r="Q2">
+        <f>AVERAGE('Test 0'!Q3,'Test 1'!Q3,'Test 2'!Q3,'Test 3'!Q3,'Test 4'!R3)</f>
+        <v>99.990849415083517</v>
+      </c>
+      <c r="R2">
+        <f>AVERAGE('Test 0'!R3,'Test 1'!R3,'Test 2'!R3,'Test 3'!R3,'Test 4'!S3)</f>
+        <v>99.991829724733805</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <f>AVERAGE('Test 0'!B21,'Test 1'!B21,'Test 2'!B21,'Test 3'!B21,'Test 4'!B21)</f>
+        <v>21</v>
+      </c>
+      <c r="C3" s="4">
+        <f>AVERAGE('Test 0'!C21,'Test 1'!C21,'Test 2'!C21,'Test 3'!C21,'Test 4'!C21)</f>
+        <v>1.2416782407407407E-3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE('Test 0'!E21,'Test 1'!E21,'Test 2'!E21,'Test 3'!E21,'Test 4'!E21)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE('Test 0'!F21,'Test 1'!F21,'Test 2'!F21,'Test 3'!F21,'Test 4'!F21)</f>
+        <v>122386.8</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE('Test 0'!G21,'Test 1'!G21,'Test 2'!G21,'Test 3'!G21,'Test 4'!G21)</f>
+        <v>5640.2</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE('Test 0'!H21,'Test 1'!H21,'Test 2'!H21,'Test 3'!H21,'Test 4'!H21)</f>
+        <v>128027</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGE('Test 0'!I21,'Test 1'!I21,'Test 2'!I21,'Test 3'!I21,'Test 4'!I21)</f>
+        <v>215706.2</v>
+      </c>
+      <c r="J3">
+        <f>AVERAGE('Test 0'!J21,'Test 1'!J21,'Test 2'!J21,'Test 3'!J21,'Test 4'!J21)</f>
+        <v>122370.4</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGE('Test 0'!K21,'Test 1'!K21,'Test 2'!K21,'Test 3'!K21,'Test 4'!K21)</f>
+        <v>93335.8</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGE('Test 0'!L21,'Test 1'!L21,'Test 2'!L21,'Test 3'!L21,'Test 4'!L21)</f>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="M3">
+        <f>AVERAGE('Test 0'!M21,'Test 1'!M21,'Test 2'!M21,'Test 3'!M21,'Test 4'!M21)</f>
+        <v>22.4</v>
+      </c>
+      <c r="N3">
+        <f>AVERAGE('Test 0'!N21,'Test 1'!N21,'Test 2'!N21,'Test 3'!N21,'Test 4'!N21)</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGE('Test 0'!O21,'Test 1'!O21,'Test 2'!O21,'Test 3'!O21,'Test 4'!O21)*100</f>
+        <v>99.982015805696491</v>
+      </c>
+      <c r="P3">
+        <f>AVERAGE('Test 0'!P21,'Test 1'!P21,'Test 2'!P21,'Test 3'!P21,'Test 4'!Q21)</f>
+        <v>99.98700938883843</v>
+      </c>
+      <c r="Q3">
+        <f>AVERAGE('Test 0'!Q21,'Test 1'!Q21,'Test 2'!Q21,'Test 3'!Q21,'Test 4'!R21)</f>
+        <v>99.980882444479946</v>
+      </c>
+      <c r="R3">
+        <f>AVERAGE('Test 0'!R21,'Test 1'!R21,'Test 2'!R21,'Test 3'!R21,'Test 4'!S21)</f>
+        <v>99.984885233635822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <f>AVERAGE('Test 0'!B11,'Test 1'!B11,'Test 2'!B11,'Test 3'!B11,'Test 4'!B11)</f>
+        <v>35</v>
+      </c>
+      <c r="C4" s="4">
+        <f>AVERAGE('Test 0'!C11,'Test 1'!C11,'Test 2'!C11,'Test 3'!C11,'Test 4'!C11)</f>
+        <v>1.2428888888888889E-3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <f>AVERAGE('Test 0'!E11,'Test 1'!E11,'Test 2'!E11,'Test 3'!E11,'Test 4'!E11)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="F4">
+        <f>AVERAGE('Test 0'!F11,'Test 1'!F11,'Test 2'!F11,'Test 3'!F11,'Test 4'!F11)</f>
+        <v>122386.8</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE('Test 0'!G11,'Test 1'!G11,'Test 2'!G11,'Test 3'!G11,'Test 4'!G11)</f>
+        <v>5640.2</v>
+      </c>
+      <c r="H4">
+        <f>AVERAGE('Test 0'!H11,'Test 1'!H11,'Test 2'!H11,'Test 3'!H11,'Test 4'!H11)</f>
+        <v>128027</v>
+      </c>
+      <c r="I4">
+        <f>AVERAGE('Test 0'!I11,'Test 1'!I11,'Test 2'!I11,'Test 3'!I11,'Test 4'!I11)</f>
+        <v>215708.4</v>
+      </c>
+      <c r="J4">
+        <f>AVERAGE('Test 0'!J11,'Test 1'!J11,'Test 2'!J11,'Test 3'!J11,'Test 4'!J11)</f>
+        <v>122372.8</v>
+      </c>
+      <c r="K4">
+        <f>AVERAGE('Test 0'!K11,'Test 1'!K11,'Test 2'!K11,'Test 3'!K11,'Test 4'!K11)</f>
+        <v>93335.6</v>
+      </c>
+      <c r="L4">
+        <f>AVERAGE('Test 0'!L11,'Test 1'!L11,'Test 2'!L11,'Test 3'!L11,'Test 4'!L11)</f>
+        <v>36.6</v>
+      </c>
+      <c r="M4">
+        <f>AVERAGE('Test 0'!M11,'Test 1'!M11,'Test 2'!M11,'Test 3'!M11,'Test 4'!M11)</f>
+        <v>22.6</v>
+      </c>
+      <c r="N4">
+        <f>AVERAGE('Test 0'!N11,'Test 1'!N11,'Test 2'!N11,'Test 3'!N11,'Test 4'!N11)</f>
+        <v>14</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGE('Test 0'!O11,'Test 1'!O11,'Test 2'!O11,'Test 3'!O11,'Test 4'!O11)*100</f>
+        <v>99.98303552805389</v>
+      </c>
+      <c r="P4">
+        <f>AVERAGE('Test 0'!P11,'Test 1'!P11,'Test 2'!P11,'Test 3'!P11,'Test 4'!Q11)</f>
+        <v>99.986602186218789</v>
+      </c>
+      <c r="Q4">
+        <f>AVERAGE('Test 0'!Q11,'Test 1'!Q11,'Test 2'!Q11,'Test 3'!Q11,'Test 4'!R11)</f>
+        <v>99.985456961671346</v>
+      </c>
+      <c r="R4">
+        <f>AVERAGE('Test 0'!R11,'Test 1'!R11,'Test 2'!R11,'Test 3'!R11,'Test 4'!S11)</f>
+        <v>99.981620367393134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <f>AVERAGE('Test 0'!B20,'Test 1'!B20,'Test 2'!B20,'Test 3'!B20,'Test 4'!B20)</f>
+        <v>21</v>
+      </c>
+      <c r="C5" s="4">
+        <f>AVERAGE('Test 0'!C20,'Test 1'!C20,'Test 2'!C20,'Test 3'!C20,'Test 4'!C20)</f>
+        <v>1.2416782407407407E-3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE('Test 0'!E20,'Test 1'!E20,'Test 2'!E20,'Test 3'!E20,'Test 4'!E20)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE('Test 0'!F20,'Test 1'!F20,'Test 2'!F20,'Test 3'!F20,'Test 4'!F20)</f>
+        <v>122386.8</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGE('Test 0'!G20,'Test 1'!G20,'Test 2'!G20,'Test 3'!G20,'Test 4'!G20)</f>
+        <v>5640.2</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGE('Test 0'!H20,'Test 1'!H20,'Test 2'!H20,'Test 3'!H20,'Test 4'!H20)</f>
+        <v>128027</v>
+      </c>
+      <c r="I5">
+        <f>AVERAGE('Test 0'!I20,'Test 1'!I20,'Test 2'!I20,'Test 3'!I20,'Test 4'!I20)</f>
+        <v>215703.8</v>
+      </c>
+      <c r="J5">
+        <f>AVERAGE('Test 0'!J20,'Test 1'!J20,'Test 2'!J20,'Test 3'!J20,'Test 4'!J20)</f>
+        <v>122371</v>
+      </c>
+      <c r="K5">
+        <f>AVERAGE('Test 0'!K20,'Test 1'!K20,'Test 2'!K20,'Test 3'!K20,'Test 4'!K20)</f>
+        <v>93332.800000000003</v>
+      </c>
+      <c r="L5">
+        <f>AVERAGE('Test 0'!L20,'Test 1'!L20,'Test 2'!L20,'Test 3'!L20,'Test 4'!L20)</f>
+        <v>41.2</v>
+      </c>
+      <c r="M5">
+        <f>AVERAGE('Test 0'!M20,'Test 1'!M20,'Test 2'!M20,'Test 3'!M20,'Test 4'!M20)</f>
+        <v>25.4</v>
+      </c>
+      <c r="N5">
+        <f>AVERAGE('Test 0'!N20,'Test 1'!N20,'Test 2'!N20,'Test 3'!N20,'Test 4'!N20)</f>
+        <v>15.8</v>
+      </c>
+      <c r="O5">
+        <f>AVERAGE('Test 0'!O20,'Test 1'!O20,'Test 2'!O20,'Test 3'!O20,'Test 4'!O20)*100</f>
+        <v>99.980903381306575</v>
+      </c>
+      <c r="P5">
+        <f>AVERAGE('Test 0'!P20,'Test 1'!P20,'Test 2'!P20,'Test 3'!P20,'Test 4'!Q20)</f>
+        <v>99.985294065844997</v>
+      </c>
+      <c r="Q5">
+        <f>AVERAGE('Test 0'!Q20,'Test 1'!Q20,'Test 2'!Q20,'Test 3'!Q20,'Test 4'!R20)</f>
+        <v>99.982842559994708</v>
+      </c>
+      <c r="R5">
+        <f>AVERAGE('Test 0'!R20,'Test 1'!R20,'Test 2'!R20,'Test 3'!R20,'Test 4'!S20)</f>
+        <v>99.979984043542331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <f>AVERAGE('Test 0'!B22,'Test 1'!B22,'Test 2'!B22,'Test 3'!B22,'Test 4'!B22)</f>
+        <v>21</v>
+      </c>
+      <c r="C6" s="4">
+        <f>AVERAGE('Test 0'!C22,'Test 1'!C22,'Test 2'!C22,'Test 3'!C22,'Test 4'!C22)</f>
+        <v>1.2416782407407407E-3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <f>AVERAGE('Test 0'!E22,'Test 1'!E22,'Test 2'!E22,'Test 3'!E22,'Test 4'!E22)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="F6">
+        <f>AVERAGE('Test 0'!F22,'Test 1'!F22,'Test 2'!F22,'Test 3'!F22,'Test 4'!F22)</f>
+        <v>122386.8</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGE('Test 0'!G22,'Test 1'!G22,'Test 2'!G22,'Test 3'!G22,'Test 4'!G22)</f>
+        <v>5640.2</v>
+      </c>
+      <c r="H6">
+        <f>AVERAGE('Test 0'!H22,'Test 1'!H22,'Test 2'!H22,'Test 3'!H22,'Test 4'!H22)</f>
+        <v>128027</v>
+      </c>
+      <c r="I6">
+        <f>AVERAGE('Test 0'!I22,'Test 1'!I22,'Test 2'!I22,'Test 3'!I22,'Test 4'!I22)</f>
+        <v>215702</v>
+      </c>
+      <c r="J6">
+        <f>AVERAGE('Test 0'!J22,'Test 1'!J22,'Test 2'!J22,'Test 3'!J22,'Test 4'!J22)</f>
+        <v>122372.8</v>
+      </c>
+      <c r="K6">
+        <f>AVERAGE('Test 0'!K22,'Test 1'!K22,'Test 2'!K22,'Test 3'!K22,'Test 4'!K22)</f>
+        <v>93329.2</v>
+      </c>
+      <c r="L6">
+        <f>AVERAGE('Test 0'!L22,'Test 1'!L22,'Test 2'!L22,'Test 3'!L22,'Test 4'!L22)</f>
+        <v>43</v>
+      </c>
+      <c r="M6">
+        <f>AVERAGE('Test 0'!M22,'Test 1'!M22,'Test 2'!M22,'Test 3'!M22,'Test 4'!M22)</f>
+        <v>29</v>
+      </c>
+      <c r="N6">
+        <f>AVERAGE('Test 0'!N22,'Test 1'!N22,'Test 2'!N22,'Test 3'!N22,'Test 4'!N22)</f>
+        <v>14</v>
+      </c>
+      <c r="O6">
+        <f>AVERAGE('Test 0'!O22,'Test 1'!O22,'Test 2'!O22,'Test 3'!O22,'Test 4'!O22)*100</f>
+        <v>99.98006906301417</v>
+      </c>
+      <c r="P6">
+        <f>AVERAGE('Test 0'!P22,'Test 1'!P22,'Test 2'!P22,'Test 3'!P22,'Test 4'!Q22)</f>
+        <v>99.985212711217315</v>
+      </c>
+      <c r="Q6">
+        <f>AVERAGE('Test 0'!Q22,'Test 1'!Q22,'Test 2'!Q22,'Test 3'!Q22,'Test 4'!R22)</f>
+        <v>99.9830057625243</v>
+      </c>
+      <c r="R6">
+        <f>AVERAGE('Test 0'!R22,'Test 1'!R22,'Test 2'!R22,'Test 3'!R22,'Test 4'!S22)</f>
+        <v>99.977942659494516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B7">
         <f>AVERAGE('Test 0'!B2,'Test 1'!B2,'Test 2'!B2,'Test 3'!B2,'Test 4'!B2)</f>
         <v>49</v>
       </c>
-      <c r="C2">
+      <c r="C7" s="4">
         <f>AVERAGE('Test 0'!C2,'Test 1'!C2,'Test 2'!C2,'Test 3'!C2,'Test 4'!C2)</f>
         <v>1.2457500000000001E-3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="E7">
         <f>AVERAGE('Test 0'!E2,'Test 1'!E2,'Test 2'!E2,'Test 3'!E2,'Test 4'!E2)</f>
         <v>1E-3</v>
       </c>
-      <c r="F2">
+      <c r="F7">
         <f>AVERAGE('Test 0'!F2,'Test 1'!F2,'Test 2'!F2,'Test 3'!F2,'Test 4'!F2)</f>
         <v>122386.8</v>
       </c>
-      <c r="G2">
+      <c r="G7">
         <f>AVERAGE('Test 0'!G2,'Test 1'!G2,'Test 2'!G2,'Test 3'!G2,'Test 4'!G2)</f>
         <v>5640.2</v>
       </c>
-      <c r="H2">
+      <c r="H7">
         <f>AVERAGE('Test 0'!H2,'Test 1'!H2,'Test 2'!H2,'Test 3'!H2,'Test 4'!H2)</f>
         <v>128027</v>
       </c>
-      <c r="I2">
+      <c r="I7">
         <f>AVERAGE('Test 0'!I2,'Test 1'!I2,'Test 2'!I2,'Test 3'!I2,'Test 4'!I2)</f>
         <v>215707.6</v>
       </c>
-      <c r="J2">
+      <c r="J7">
         <f>AVERAGE('Test 0'!J2,'Test 1'!J2,'Test 2'!J2,'Test 3'!J2,'Test 4'!J2)</f>
         <v>122367.4</v>
       </c>
-      <c r="K2">
+      <c r="K7">
         <f>AVERAGE('Test 0'!K2,'Test 1'!K2,'Test 2'!K2,'Test 3'!K2,'Test 4'!K2)</f>
         <v>93340.2</v>
       </c>
-      <c r="L2">
+      <c r="L7">
         <f>AVERAGE('Test 0'!L2,'Test 1'!L2,'Test 2'!L2,'Test 3'!L2,'Test 4'!L2)</f>
         <v>37.4</v>
       </c>
-      <c r="M2">
+      <c r="M7">
         <f>AVERAGE('Test 0'!M2,'Test 1'!M2,'Test 2'!M2,'Test 3'!M2,'Test 4'!M2)</f>
         <v>18</v>
       </c>
-      <c r="N2">
+      <c r="N7">
         <f>AVERAGE('Test 0'!N2,'Test 1'!N2,'Test 2'!N2,'Test 3'!N2,'Test 4'!N2)</f>
         <v>19.399999999999999</v>
       </c>
-      <c r="O2">
-        <f>AVERAGE('Test 0'!O2,'Test 1'!O2,'Test 2'!O2,'Test 3'!O2,'Test 4'!O2)</f>
-        <v>0.99982664719923908</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f>AVERAGE('Test 0'!B3,'Test 1'!B3,'Test 2'!B3,'Test 3'!B3,'Test 4'!B3)</f>
-        <v>49</v>
-      </c>
-      <c r="C3">
-        <f>AVERAGE('Test 0'!C3,'Test 1'!C3,'Test 2'!C3,'Test 3'!C3,'Test 4'!C3)</f>
-        <v>1.2447939814814817E-3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <f>AVERAGE('Test 0'!E3,'Test 1'!E3,'Test 2'!E3,'Test 3'!E3,'Test 4'!E3)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="F3">
-        <f>AVERAGE('Test 0'!F3,'Test 1'!F3,'Test 2'!F3,'Test 3'!F3,'Test 4'!F3)</f>
-        <v>122386.8</v>
-      </c>
-      <c r="G3">
-        <f>AVERAGE('Test 0'!G3,'Test 1'!G3,'Test 2'!G3,'Test 3'!G3,'Test 4'!G3)</f>
-        <v>5640.2</v>
-      </c>
-      <c r="H3">
-        <f>AVERAGE('Test 0'!H3,'Test 1'!H3,'Test 2'!H3,'Test 3'!H3,'Test 4'!H3)</f>
-        <v>128027</v>
-      </c>
-      <c r="I3">
-        <f>AVERAGE('Test 0'!I3,'Test 1'!I3,'Test 2'!I3,'Test 3'!I3,'Test 4'!I3)</f>
-        <v>215725.2</v>
-      </c>
-      <c r="J3">
-        <f>AVERAGE('Test 0'!J3,'Test 1'!J3,'Test 2'!J3,'Test 3'!J3,'Test 4'!J3)</f>
-        <v>122376.8</v>
-      </c>
-      <c r="K3">
-        <f>AVERAGE('Test 0'!K3,'Test 1'!K3,'Test 2'!K3,'Test 3'!K3,'Test 4'!K3)</f>
-        <v>93348.4</v>
-      </c>
-      <c r="L3">
-        <f>AVERAGE('Test 0'!L3,'Test 1'!L3,'Test 2'!L3,'Test 3'!L3,'Test 4'!L3)</f>
-        <v>19.8</v>
-      </c>
-      <c r="M3">
-        <f>AVERAGE('Test 0'!M3,'Test 1'!M3,'Test 2'!M3,'Test 3'!M3,'Test 4'!M3)</f>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="N3">
-        <f>AVERAGE('Test 0'!N3,'Test 1'!N3,'Test 2'!N3,'Test 3'!N3,'Test 4'!N3)</f>
-        <v>10</v>
-      </c>
-      <c r="O3">
-        <f>AVERAGE('Test 0'!O3,'Test 1'!O3,'Test 2'!O3,'Test 3'!O3,'Test 4'!O3)</f>
-        <v>0.99990822498783238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="O7">
+        <f>AVERAGE('Test 0'!O2,'Test 1'!O2,'Test 2'!O2,'Test 3'!O2,'Test 4'!O2)*100</f>
+        <v>99.982664719923903</v>
+      </c>
+      <c r="P7">
+        <f>AVERAGE('Test 0'!P2,'Test 1'!P2,'Test 2'!P2,'Test 3'!P2,'Test 4'!Q2)</f>
+        <v>99.983494958125107</v>
+      </c>
+      <c r="Q7">
+        <f>AVERAGE('Test 0'!Q2,'Test 1'!Q2,'Test 2'!Q2,'Test 3'!Q2,'Test 4'!R2)</f>
+        <v>99.9866000670131</v>
+      </c>
+      <c r="R7">
+        <f>AVERAGE('Test 0'!R2,'Test 1'!R2,'Test 2'!R2,'Test 3'!R2,'Test 4'!S2)</f>
+        <v>99.985091758941294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B8">
         <f>AVERAGE('Test 0'!B4,'Test 1'!B4,'Test 2'!B4,'Test 3'!B4,'Test 4'!B4)</f>
         <v>49</v>
       </c>
-      <c r="C4">
+      <c r="C8" s="4">
         <f>AVERAGE('Test 0'!C4,'Test 1'!C4,'Test 2'!C4,'Test 3'!C4,'Test 4'!C4)</f>
         <v>1.2447939814814817E-3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="E8">
         <f>AVERAGE('Test 0'!E4,'Test 1'!E4,'Test 2'!E4,'Test 3'!E4,'Test 4'!E4)</f>
         <v>1E-3</v>
       </c>
-      <c r="F4">
+      <c r="F8">
         <f>AVERAGE('Test 0'!F4,'Test 1'!F4,'Test 2'!F4,'Test 3'!F4,'Test 4'!F4)</f>
         <v>122386.8</v>
       </c>
-      <c r="G4">
+      <c r="G8">
         <f>AVERAGE('Test 0'!G4,'Test 1'!G4,'Test 2'!G4,'Test 3'!G4,'Test 4'!G4)</f>
         <v>5640.2</v>
       </c>
-      <c r="H4">
+      <c r="H8">
         <f>AVERAGE('Test 0'!H4,'Test 1'!H4,'Test 2'!H4,'Test 3'!H4,'Test 4'!H4)</f>
         <v>128027</v>
       </c>
-      <c r="I4">
+      <c r="I8">
         <f>AVERAGE('Test 0'!I4,'Test 1'!I4,'Test 2'!I4,'Test 3'!I4,'Test 4'!I4)</f>
         <v>215699.6</v>
       </c>
-      <c r="J4">
+      <c r="J8">
         <f>AVERAGE('Test 0'!J4,'Test 1'!J4,'Test 2'!J4,'Test 3'!J4,'Test 4'!J4)</f>
         <v>122369.2</v>
       </c>
-      <c r="K4">
+      <c r="K8">
         <f>AVERAGE('Test 0'!K4,'Test 1'!K4,'Test 2'!K4,'Test 3'!K4,'Test 4'!K4)</f>
         <v>93330.4</v>
       </c>
-      <c r="L4">
+      <c r="L8">
         <f>AVERAGE('Test 0'!L4,'Test 1'!L4,'Test 2'!L4,'Test 3'!L4,'Test 4'!L4)</f>
         <v>45.4</v>
       </c>
-      <c r="M4">
+      <c r="M8">
         <f>AVERAGE('Test 0'!M4,'Test 1'!M4,'Test 2'!M4,'Test 3'!M4,'Test 4'!M4)</f>
         <v>27.8</v>
       </c>
-      <c r="N4">
+      <c r="N8">
         <f>AVERAGE('Test 0'!N4,'Test 1'!N4,'Test 2'!N4,'Test 3'!N4,'Test 4'!N4)</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="O4">
-        <f>AVERAGE('Test 0'!O4,'Test 1'!O4,'Test 2'!O4,'Test 3'!O4,'Test 4'!O4)</f>
-        <v>0.99978956638624261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="O8">
+        <f>AVERAGE('Test 0'!O4,'Test 1'!O4,'Test 2'!O4,'Test 3'!O4,'Test 4'!O4)*100</f>
+        <v>99.978956638624254</v>
+      </c>
+      <c r="P8">
+        <f>AVERAGE('Test 0'!P4,'Test 1'!P4,'Test 2'!P4,'Test 3'!P4,'Test 4'!Q4)</f>
+        <v>99.982843959146805</v>
+      </c>
+      <c r="Q8">
+        <f>AVERAGE('Test 0'!Q4,'Test 1'!Q4,'Test 2'!Q4,'Test 3'!Q4,'Test 4'!R4)</f>
+        <v>99.982841717307011</v>
+      </c>
+      <c r="R8">
+        <f>AVERAGE('Test 0'!R4,'Test 1'!R4,'Test 2'!R4,'Test 3'!R4,'Test 4'!S4)</f>
+        <v>99.97590263172151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE('Test 0'!B13,'Test 1'!B13,'Test 2'!B13,'Test 3'!B13,'Test 4'!B13)</f>
+        <v>35</v>
+      </c>
+      <c r="C9" s="4">
+        <f>AVERAGE('Test 0'!C13,'Test 1'!C13,'Test 2'!C13,'Test 3'!C13,'Test 4'!C13)</f>
+        <v>1.2428888888888889E-3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <f>AVERAGE('Test 0'!E13,'Test 1'!E13,'Test 2'!E13,'Test 3'!E13,'Test 4'!E13)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="F9">
+        <f>AVERAGE('Test 0'!F13,'Test 1'!F13,'Test 2'!F13,'Test 3'!F13,'Test 4'!F13)</f>
+        <v>122386.8</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE('Test 0'!G13,'Test 1'!G13,'Test 2'!G13,'Test 3'!G13,'Test 4'!G13)</f>
+        <v>5640.2</v>
+      </c>
+      <c r="H9">
+        <f>AVERAGE('Test 0'!H13,'Test 1'!H13,'Test 2'!H13,'Test 3'!H13,'Test 4'!H13)</f>
+        <v>128027</v>
+      </c>
+      <c r="I9">
+        <f>AVERAGE('Test 0'!I13,'Test 1'!I13,'Test 2'!I13,'Test 3'!I13,'Test 4'!I13)</f>
+        <v>215684.6</v>
+      </c>
+      <c r="J9">
+        <f>AVERAGE('Test 0'!J13,'Test 1'!J13,'Test 2'!J13,'Test 3'!J13,'Test 4'!J13)</f>
+        <v>122366.8</v>
+      </c>
+      <c r="K9">
+        <f>AVERAGE('Test 0'!K13,'Test 1'!K13,'Test 2'!K13,'Test 3'!K13,'Test 4'!K13)</f>
+        <v>93317.8</v>
+      </c>
+      <c r="L9">
+        <f>AVERAGE('Test 0'!L13,'Test 1'!L13,'Test 2'!L13,'Test 3'!L13,'Test 4'!L13)</f>
+        <v>60.4</v>
+      </c>
+      <c r="M9">
+        <f>AVERAGE('Test 0'!M13,'Test 1'!M13,'Test 2'!M13,'Test 3'!M13,'Test 4'!M13)</f>
+        <v>40.4</v>
+      </c>
+      <c r="N9">
+        <f>AVERAGE('Test 0'!N13,'Test 1'!N13,'Test 2'!N13,'Test 3'!N13,'Test 4'!N13)</f>
+        <v>20</v>
+      </c>
+      <c r="O9">
+        <f>AVERAGE('Test 0'!O13,'Test 1'!O13,'Test 2'!O13,'Test 3'!O13,'Test 4'!O13)*100</f>
+        <v>99.972003986187403</v>
+      </c>
+      <c r="P9">
+        <f>AVERAGE('Test 0'!P13,'Test 1'!P13,'Test 2'!P13,'Test 3'!P13,'Test 4'!Q13)</f>
+        <v>99.981127853707761</v>
+      </c>
+      <c r="Q9">
+        <f>AVERAGE('Test 0'!Q13,'Test 1'!Q13,'Test 2'!Q13,'Test 3'!Q13,'Test 4'!R13)</f>
+        <v>99.972059203282797</v>
+      </c>
+      <c r="R9">
+        <f>AVERAGE('Test 0'!R13,'Test 1'!R13,'Test 2'!R13,'Test 3'!R13,'Test 4'!S13)</f>
+        <v>99.974268749088225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f>AVERAGE('Test 0'!B12,'Test 1'!B12,'Test 2'!B12,'Test 3'!B12,'Test 4'!B12)</f>
+        <v>35</v>
+      </c>
+      <c r="C10" s="4">
+        <f>AVERAGE('Test 0'!C12,'Test 1'!C12,'Test 2'!C12,'Test 3'!C12,'Test 4'!C12)</f>
+        <v>1.2428888888888889E-3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <f>AVERAGE('Test 0'!E12,'Test 1'!E12,'Test 2'!E12,'Test 3'!E12,'Test 4'!E12)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="F10">
+        <f>AVERAGE('Test 0'!F12,'Test 1'!F12,'Test 2'!F12,'Test 3'!F12,'Test 4'!F12)</f>
+        <v>122386.8</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGE('Test 0'!G12,'Test 1'!G12,'Test 2'!G12,'Test 3'!G12,'Test 4'!G12)</f>
+        <v>5640.2</v>
+      </c>
+      <c r="H10">
+        <f>AVERAGE('Test 0'!H12,'Test 1'!H12,'Test 2'!H12,'Test 3'!H12,'Test 4'!H12)</f>
+        <v>128027</v>
+      </c>
+      <c r="I10">
+        <f>AVERAGE('Test 0'!I12,'Test 1'!I12,'Test 2'!I12,'Test 3'!I12,'Test 4'!I12)</f>
+        <v>215699.4</v>
+      </c>
+      <c r="J10">
+        <f>AVERAGE('Test 0'!J12,'Test 1'!J12,'Test 2'!J12,'Test 3'!J12,'Test 4'!J12)</f>
+        <v>122368.2</v>
+      </c>
+      <c r="K10">
+        <f>AVERAGE('Test 0'!K12,'Test 1'!K12,'Test 2'!K12,'Test 3'!K12,'Test 4'!K12)</f>
+        <v>93331.199999999997</v>
+      </c>
+      <c r="L10">
+        <f>AVERAGE('Test 0'!L12,'Test 1'!L12,'Test 2'!L12,'Test 3'!L12,'Test 4'!L12)</f>
+        <v>45.6</v>
+      </c>
+      <c r="M10">
+        <f>AVERAGE('Test 0'!M12,'Test 1'!M12,'Test 2'!M12,'Test 3'!M12,'Test 4'!M12)</f>
+        <v>27</v>
+      </c>
+      <c r="N10">
+        <f>AVERAGE('Test 0'!N12,'Test 1'!N12,'Test 2'!N12,'Test 3'!N12,'Test 4'!N12)</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="O10">
+        <f>AVERAGE('Test 0'!O12,'Test 1'!O12,'Test 2'!O12,'Test 3'!O12,'Test 4'!O12)*100</f>
+        <v>99.978863936591793</v>
+      </c>
+      <c r="P10">
+        <f>AVERAGE('Test 0'!P12,'Test 1'!P12,'Test 2'!P12,'Test 3'!P12,'Test 4'!Q12)</f>
+        <v>99.981126682905099</v>
+      </c>
+      <c r="Q10">
+        <f>AVERAGE('Test 0'!Q12,'Test 1'!Q12,'Test 2'!Q12,'Test 3'!Q12,'Test 4'!R12)</f>
+        <v>99.98529219916233</v>
+      </c>
+      <c r="R10">
+        <f>AVERAGE('Test 0'!R12,'Test 1'!R12,'Test 2'!R12,'Test 3'!R12,'Test 4'!S12)</f>
+        <v>99.97835481818835</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B11">
         <f>AVERAGE('Test 0'!B5,'Test 1'!B5,'Test 2'!B5,'Test 3'!B5,'Test 4'!B5)</f>
         <v>49</v>
       </c>
-      <c r="C5">
+      <c r="C11" s="4">
         <f>AVERAGE('Test 0'!C5,'Test 1'!C5,'Test 2'!C5,'Test 3'!C5,'Test 4'!C5)</f>
         <v>1.2447939814814817E-3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
+      <c r="E11">
         <f>AVERAGE('Test 0'!E5,'Test 1'!E5,'Test 2'!E5,'Test 3'!E5,'Test 4'!E5)</f>
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F11">
         <f>AVERAGE('Test 0'!F5,'Test 1'!F5,'Test 2'!F5,'Test 3'!F5,'Test 4'!F5)</f>
         <v>122386.8</v>
       </c>
-      <c r="G5">
+      <c r="G11">
         <f>AVERAGE('Test 0'!G5,'Test 1'!G5,'Test 2'!G5,'Test 3'!G5,'Test 4'!G5)</f>
         <v>5640.2</v>
       </c>
-      <c r="H5">
+      <c r="H11">
         <f>AVERAGE('Test 0'!H5,'Test 1'!H5,'Test 2'!H5,'Test 3'!H5,'Test 4'!H5)</f>
         <v>128027</v>
       </c>
-      <c r="I5">
+      <c r="I11">
         <f>AVERAGE('Test 0'!I5,'Test 1'!I5,'Test 2'!I5,'Test 3'!I5,'Test 4'!I5)</f>
         <v>214325.8</v>
       </c>
-      <c r="J5">
+      <c r="J11">
         <f>AVERAGE('Test 0'!J5,'Test 1'!J5,'Test 2'!J5,'Test 3'!J5,'Test 4'!J5)</f>
         <v>122293.6</v>
       </c>
-      <c r="K5">
+      <c r="K11">
         <f>AVERAGE('Test 0'!K5,'Test 1'!K5,'Test 2'!K5,'Test 3'!K5,'Test 4'!K5)</f>
         <v>92032.2</v>
       </c>
-      <c r="L5">
+      <c r="L11">
         <f>AVERAGE('Test 0'!L5,'Test 1'!L5,'Test 2'!L5,'Test 3'!L5,'Test 4'!L5)</f>
         <v>1419.2</v>
       </c>
-      <c r="M5">
+      <c r="M11">
         <f>AVERAGE('Test 0'!M5,'Test 1'!M5,'Test 2'!M5,'Test 3'!M5,'Test 4'!M5)</f>
         <v>1326</v>
       </c>
-      <c r="N5">
+      <c r="N11">
         <f>AVERAGE('Test 0'!N5,'Test 1'!N5,'Test 2'!N5,'Test 3'!N5,'Test 4'!N5)</f>
         <v>93.2</v>
       </c>
-      <c r="O5">
-        <f>AVERAGE('Test 0'!O5,'Test 1'!O5,'Test 2'!O5,'Test 3'!O5,'Test 4'!O5)</f>
-        <v>0.99342186377436259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="O11">
+        <f>AVERAGE('Test 0'!O5,'Test 1'!O5,'Test 2'!O5,'Test 3'!O5,'Test 4'!O5)*100</f>
+        <v>99.342186377436263</v>
+      </c>
+      <c r="P11">
+        <f>AVERAGE('Test 0'!P5,'Test 1'!P5,'Test 2'!P5,'Test 3'!P5,'Test 4'!Q5)</f>
+        <v>99.602230363456997</v>
+      </c>
+      <c r="Q11">
+        <f>AVERAGE('Test 0'!Q5,'Test 1'!Q5,'Test 2'!Q5,'Test 3'!Q5,'Test 4'!R5)</f>
+        <v>99.569505263597563</v>
+      </c>
+      <c r="R11">
+        <f>AVERAGE('Test 0'!R5,'Test 1'!R5,'Test 2'!R5,'Test 3'!R5,'Test 4'!S5)</f>
+        <v>99.107582183997977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE('Test 0'!B23,'Test 1'!B23,'Test 2'!B23,'Test 3'!B23,'Test 4'!B23)</f>
+        <v>21</v>
+      </c>
+      <c r="C12" s="4">
+        <f>AVERAGE('Test 0'!C23,'Test 1'!C23,'Test 2'!C23,'Test 3'!C23,'Test 4'!C23)</f>
+        <v>1.2416782407407407E-3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <f>AVERAGE('Test 0'!E23,'Test 1'!E23,'Test 2'!E23,'Test 3'!E23,'Test 4'!E23)</f>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f>AVERAGE('Test 0'!F23,'Test 1'!F23,'Test 2'!F23,'Test 3'!F23,'Test 4'!F23)</f>
+        <v>122386.8</v>
+      </c>
+      <c r="G12">
+        <f>AVERAGE('Test 0'!G23,'Test 1'!G23,'Test 2'!G23,'Test 3'!G23,'Test 4'!G23)</f>
+        <v>5640.2</v>
+      </c>
+      <c r="H12">
+        <f>AVERAGE('Test 0'!H23,'Test 1'!H23,'Test 2'!H23,'Test 3'!H23,'Test 4'!H23)</f>
+        <v>128027</v>
+      </c>
+      <c r="I12">
+        <f>AVERAGE('Test 0'!I23,'Test 1'!I23,'Test 2'!I23,'Test 3'!I23,'Test 4'!I23)</f>
+        <v>214493.8</v>
+      </c>
+      <c r="J12">
+        <f>AVERAGE('Test 0'!J23,'Test 1'!J23,'Test 2'!J23,'Test 3'!J23,'Test 4'!J23)</f>
+        <v>122303.4</v>
+      </c>
+      <c r="K12">
+        <f>AVERAGE('Test 0'!K23,'Test 1'!K23,'Test 2'!K23,'Test 3'!K23,'Test 4'!K23)</f>
+        <v>92190.399999999994</v>
+      </c>
+      <c r="L12">
+        <f>AVERAGE('Test 0'!L23,'Test 1'!L23,'Test 2'!L23,'Test 3'!L23,'Test 4'!L23)</f>
+        <v>1251.2</v>
+      </c>
+      <c r="M12">
+        <f>AVERAGE('Test 0'!M23,'Test 1'!M23,'Test 2'!M23,'Test 3'!M23,'Test 4'!M23)</f>
+        <v>1167.8</v>
+      </c>
+      <c r="N12">
+        <f>AVERAGE('Test 0'!N23,'Test 1'!N23,'Test 2'!N23,'Test 3'!N23,'Test 4'!N23)</f>
+        <v>83.4</v>
+      </c>
+      <c r="O12">
+        <f>AVERAGE('Test 0'!O23,'Test 1'!O23,'Test 2'!O23,'Test 3'!O23,'Test 4'!O23)*100</f>
+        <v>99.420056084729609</v>
+      </c>
+      <c r="P12">
+        <f>AVERAGE('Test 0'!P23,'Test 1'!P23,'Test 2'!P23,'Test 3'!P23,'Test 4'!Q23)</f>
+        <v>99.597718036112155</v>
+      </c>
+      <c r="Q12">
+        <f>AVERAGE('Test 0'!Q23,'Test 1'!Q23,'Test 2'!Q23,'Test 3'!Q23,'Test 4'!R23)</f>
+        <v>99.719846767062904</v>
+      </c>
+      <c r="R12">
+        <f>AVERAGE('Test 0'!R23,'Test 1'!R23,'Test 2'!R23,'Test 3'!R23,'Test 4'!S23)</f>
+        <v>99.086484464354413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B13">
         <f>AVERAGE('Test 0'!B6,'Test 1'!B6,'Test 2'!B6,'Test 3'!B6,'Test 4'!B6)</f>
         <v>49</v>
       </c>
-      <c r="C6">
+      <c r="C13" s="4">
         <f>AVERAGE('Test 0'!C6,'Test 1'!C6,'Test 2'!C6,'Test 3'!C6,'Test 4'!C6)</f>
         <v>1.2447939814814817E-3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E6">
+      <c r="E13">
         <f>AVERAGE('Test 0'!E6,'Test 1'!E6,'Test 2'!E6,'Test 3'!E6,'Test 4'!E6)</f>
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F13">
         <f>AVERAGE('Test 0'!F6,'Test 1'!F6,'Test 2'!F6,'Test 3'!F6,'Test 4'!F6)</f>
         <v>122386.8</v>
       </c>
-      <c r="G6">
+      <c r="G13">
         <f>AVERAGE('Test 0'!G6,'Test 1'!G6,'Test 2'!G6,'Test 3'!G6,'Test 4'!G6)</f>
         <v>5640.2</v>
       </c>
-      <c r="H6">
+      <c r="H13">
         <f>AVERAGE('Test 0'!H6,'Test 1'!H6,'Test 2'!H6,'Test 3'!H6,'Test 4'!H6)</f>
         <v>128027</v>
       </c>
-      <c r="I6">
+      <c r="I13">
         <f>AVERAGE('Test 0'!I6,'Test 1'!I6,'Test 2'!I6,'Test 3'!I6,'Test 4'!I6)</f>
         <v>214379.2</v>
       </c>
-      <c r="J6">
+      <c r="J13">
         <f>AVERAGE('Test 0'!J6,'Test 1'!J6,'Test 2'!J6,'Test 3'!J6,'Test 4'!J6)</f>
         <v>122328.4</v>
       </c>
-      <c r="K6">
+      <c r="K13">
         <f>AVERAGE('Test 0'!K6,'Test 1'!K6,'Test 2'!K6,'Test 3'!K6,'Test 4'!K6)</f>
         <v>92050.8</v>
       </c>
-      <c r="L6">
+      <c r="L13">
         <f>AVERAGE('Test 0'!L6,'Test 1'!L6,'Test 2'!L6,'Test 3'!L6,'Test 4'!L6)</f>
         <v>1365.8</v>
       </c>
-      <c r="M6">
+      <c r="M13">
         <f>AVERAGE('Test 0'!M6,'Test 1'!M6,'Test 2'!M6,'Test 3'!M6,'Test 4'!M6)</f>
         <v>1307.4000000000001</v>
       </c>
-      <c r="N6">
+      <c r="N13">
         <f>AVERAGE('Test 0'!N6,'Test 1'!N6,'Test 2'!N6,'Test 3'!N6,'Test 4'!N6)</f>
         <v>58.4</v>
       </c>
-      <c r="O6">
-        <f>AVERAGE('Test 0'!O6,'Test 1'!O6,'Test 2'!O6,'Test 3'!O6,'Test 4'!O6)</f>
-        <v>0.99366937820111656</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <f>AVERAGE('Test 0'!B7,'Test 1'!B7,'Test 2'!B7,'Test 3'!B7,'Test 4'!B7)</f>
-        <v>49</v>
-      </c>
-      <c r="C7">
-        <f>AVERAGE('Test 0'!C7,'Test 1'!C7,'Test 2'!C7,'Test 3'!C7,'Test 4'!C7)</f>
-        <v>1.2447939814814817E-3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <f>AVERAGE('Test 0'!E7,'Test 1'!E7,'Test 2'!E7,'Test 3'!E7,'Test 4'!E7)</f>
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <f>AVERAGE('Test 0'!F7,'Test 1'!F7,'Test 2'!F7,'Test 3'!F7,'Test 4'!F7)</f>
-        <v>122386.8</v>
-      </c>
-      <c r="G7">
-        <f>AVERAGE('Test 0'!G7,'Test 1'!G7,'Test 2'!G7,'Test 3'!G7,'Test 4'!G7)</f>
-        <v>5640.2</v>
-      </c>
-      <c r="H7">
-        <f>AVERAGE('Test 0'!H7,'Test 1'!H7,'Test 2'!H7,'Test 3'!H7,'Test 4'!H7)</f>
-        <v>128027</v>
-      </c>
-      <c r="I7">
-        <f>AVERAGE('Test 0'!I7,'Test 1'!I7,'Test 2'!I7,'Test 3'!I7,'Test 4'!I7)</f>
-        <v>213896.4</v>
-      </c>
-      <c r="J7">
-        <f>AVERAGE('Test 0'!J7,'Test 1'!J7,'Test 2'!J7,'Test 3'!J7,'Test 4'!J7)</f>
-        <v>122349</v>
-      </c>
-      <c r="K7">
-        <f>AVERAGE('Test 0'!K7,'Test 1'!K7,'Test 2'!K7,'Test 3'!K7,'Test 4'!K7)</f>
-        <v>91547.4</v>
-      </c>
-      <c r="L7">
-        <f>AVERAGE('Test 0'!L7,'Test 1'!L7,'Test 2'!L7,'Test 3'!L7,'Test 4'!L7)</f>
-        <v>1848.6</v>
-      </c>
-      <c r="M7">
-        <f>AVERAGE('Test 0'!M7,'Test 1'!M7,'Test 2'!M7,'Test 3'!M7,'Test 4'!M7)</f>
-        <v>1810.8</v>
-      </c>
-      <c r="N7">
-        <f>AVERAGE('Test 0'!N7,'Test 1'!N7,'Test 2'!N7,'Test 3'!N7,'Test 4'!N7)</f>
-        <v>37.799999999999997</v>
-      </c>
-      <c r="O7">
-        <f>AVERAGE('Test 0'!O7,'Test 1'!O7,'Test 2'!O7,'Test 3'!O7,'Test 4'!O7)</f>
-        <v>0.99143155113675829</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <f>AVERAGE('Test 0'!B8,'Test 1'!B8,'Test 2'!B8,'Test 3'!B8,'Test 4'!B8)</f>
-        <v>49</v>
-      </c>
-      <c r="C8">
-        <f>AVERAGE('Test 0'!C8,'Test 1'!C8,'Test 2'!C8,'Test 3'!C8,'Test 4'!C8)</f>
-        <v>1.2447939814814817E-3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <f>AVERAGE('Test 0'!E8,'Test 1'!E8,'Test 2'!E8,'Test 3'!E8,'Test 4'!E8)</f>
-        <v>10</v>
-      </c>
-      <c r="F8" s="5">
-        <f>AVERAGE('Test 0'!F8,'Test 1'!F8,'Test 2'!F8,'Test 3'!F8,'Test 4'!F8)</f>
-        <v>122386.8</v>
-      </c>
-      <c r="G8">
-        <f>AVERAGE('Test 0'!G8,'Test 1'!G8,'Test 2'!G8,'Test 3'!G8,'Test 4'!G8)</f>
-        <v>5640.2</v>
-      </c>
-      <c r="H8">
-        <f>AVERAGE('Test 0'!H8,'Test 1'!H8,'Test 2'!H8,'Test 3'!H8,'Test 4'!H8)</f>
-        <v>128027</v>
-      </c>
-      <c r="I8">
-        <f>AVERAGE('Test 0'!I8,'Test 1'!I8,'Test 2'!I8,'Test 3'!I8,'Test 4'!I8)</f>
-        <v>211907.4</v>
-      </c>
-      <c r="J8">
-        <f>AVERAGE('Test 0'!J8,'Test 1'!J8,'Test 2'!J8,'Test 3'!J8,'Test 4'!J8)</f>
-        <v>122367</v>
-      </c>
-      <c r="K8">
-        <f>AVERAGE('Test 0'!K8,'Test 1'!K8,'Test 2'!K8,'Test 3'!K8,'Test 4'!K8)</f>
-        <v>89540.4</v>
-      </c>
-      <c r="L8">
-        <f>AVERAGE('Test 0'!L8,'Test 1'!L8,'Test 2'!L8,'Test 3'!L8,'Test 4'!L8)</f>
-        <v>3837.6</v>
-      </c>
-      <c r="M8">
-        <f>AVERAGE('Test 0'!M8,'Test 1'!M8,'Test 2'!M8,'Test 3'!M8,'Test 4'!M8)</f>
-        <v>3817.8</v>
-      </c>
-      <c r="N8">
-        <f>AVERAGE('Test 0'!N8,'Test 1'!N8,'Test 2'!N8,'Test 3'!N8,'Test 4'!N8)</f>
-        <v>19.8</v>
-      </c>
-      <c r="O8">
-        <f>AVERAGE('Test 0'!O8,'Test 1'!O8,'Test 2'!O8,'Test 3'!O8,'Test 4'!O8)</f>
-        <v>0.98221233400542263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <f>AVERAGE('Test 0'!B9,'Test 1'!B9,'Test 2'!B9,'Test 3'!B9,'Test 4'!B9)</f>
-        <v>49</v>
-      </c>
-      <c r="C9">
-        <f>AVERAGE('Test 0'!C9,'Test 1'!C9,'Test 2'!C9,'Test 3'!C9,'Test 4'!C9)</f>
-        <v>1.2447939814814817E-3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <f>AVERAGE('Test 0'!E9,'Test 1'!E9,'Test 2'!E9,'Test 3'!E9,'Test 4'!E9)</f>
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <f>AVERAGE('Test 0'!F9,'Test 1'!F9,'Test 2'!F9,'Test 3'!F9,'Test 4'!F9)</f>
-        <v>122386.8</v>
-      </c>
-      <c r="G9">
-        <f>AVERAGE('Test 0'!G9,'Test 1'!G9,'Test 2'!G9,'Test 3'!G9,'Test 4'!G9)</f>
-        <v>5640.2</v>
-      </c>
-      <c r="H9">
-        <f>AVERAGE('Test 0'!H9,'Test 1'!H9,'Test 2'!H9,'Test 3'!H9,'Test 4'!H9)</f>
-        <v>128027</v>
-      </c>
-      <c r="I9">
-        <f>AVERAGE('Test 0'!I9,'Test 1'!I9,'Test 2'!I9,'Test 3'!I9,'Test 4'!I9)</f>
-        <v>211879.6</v>
-      </c>
-      <c r="J9">
-        <f>AVERAGE('Test 0'!J9,'Test 1'!J9,'Test 2'!J9,'Test 3'!J9,'Test 4'!J9)</f>
-        <v>122365.8</v>
-      </c>
-      <c r="K9">
-        <f>AVERAGE('Test 0'!K9,'Test 1'!K9,'Test 2'!K9,'Test 3'!K9,'Test 4'!K9)</f>
-        <v>89513.8</v>
-      </c>
-      <c r="L9">
-        <f>AVERAGE('Test 0'!L9,'Test 1'!L9,'Test 2'!L9,'Test 3'!L9,'Test 4'!L9)</f>
-        <v>3865.4</v>
-      </c>
-      <c r="M9">
-        <f>AVERAGE('Test 0'!M9,'Test 1'!M9,'Test 2'!M9,'Test 3'!M9,'Test 4'!M9)</f>
-        <v>3844.4</v>
-      </c>
-      <c r="N9">
-        <f>AVERAGE('Test 0'!N9,'Test 1'!N9,'Test 2'!N9,'Test 3'!N9,'Test 4'!N9)</f>
-        <v>21</v>
-      </c>
-      <c r="O9">
-        <f>AVERAGE('Test 0'!O9,'Test 1'!O9,'Test 2'!O9,'Test 3'!O9,'Test 4'!O9)</f>
-        <v>0.98208347818025887</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <f>AVERAGE('Test 0'!B10,'Test 1'!B10,'Test 2'!B10,'Test 3'!B10,'Test 4'!B10)</f>
-        <v>49</v>
-      </c>
-      <c r="C10">
-        <f>AVERAGE('Test 0'!C10,'Test 1'!C10,'Test 2'!C10,'Test 3'!C10,'Test 4'!C10)</f>
-        <v>1.2447939814814817E-3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <f>AVERAGE('Test 0'!E10,'Test 1'!E10,'Test 2'!E10,'Test 3'!E10,'Test 4'!E10)</f>
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <f>AVERAGE('Test 0'!F10,'Test 1'!F10,'Test 2'!F10,'Test 3'!F10,'Test 4'!F10)</f>
-        <v>122386.8</v>
-      </c>
-      <c r="G10">
-        <f>AVERAGE('Test 0'!G10,'Test 1'!G10,'Test 2'!G10,'Test 3'!G10,'Test 4'!G10)</f>
-        <v>5640.2</v>
-      </c>
-      <c r="H10">
-        <f>AVERAGE('Test 0'!H10,'Test 1'!H10,'Test 2'!H10,'Test 3'!H10,'Test 4'!H10)</f>
-        <v>128027</v>
-      </c>
-      <c r="I10">
-        <f>AVERAGE('Test 0'!I10,'Test 1'!I10,'Test 2'!I10,'Test 3'!I10,'Test 4'!I10)</f>
-        <v>211217</v>
-      </c>
-      <c r="J10">
-        <f>AVERAGE('Test 0'!J10,'Test 1'!J10,'Test 2'!J10,'Test 3'!J10,'Test 4'!J10)</f>
-        <v>122368.6</v>
-      </c>
-      <c r="K10">
-        <f>AVERAGE('Test 0'!K10,'Test 1'!K10,'Test 2'!K10,'Test 3'!K10,'Test 4'!K10)</f>
-        <v>88848.4</v>
-      </c>
-      <c r="L10">
-        <f>AVERAGE('Test 0'!L10,'Test 1'!L10,'Test 2'!L10,'Test 3'!L10,'Test 4'!L10)</f>
-        <v>4528</v>
-      </c>
-      <c r="M10">
-        <f>AVERAGE('Test 0'!M10,'Test 1'!M10,'Test 2'!M10,'Test 3'!M10,'Test 4'!M10)</f>
-        <v>4509.8</v>
-      </c>
-      <c r="N10">
-        <f>AVERAGE('Test 0'!N10,'Test 1'!N10,'Test 2'!N10,'Test 3'!N10,'Test 4'!N10)</f>
-        <v>18.2</v>
-      </c>
-      <c r="O10">
-        <f>AVERAGE('Test 0'!O10,'Test 1'!O10,'Test 2'!O10,'Test 3'!O10,'Test 4'!O10)</f>
-        <v>0.97901225984379658</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f>AVERAGE('Test 0'!B11,'Test 1'!B11,'Test 2'!B11,'Test 3'!B11,'Test 4'!B11)</f>
-        <v>35</v>
-      </c>
-      <c r="C11">
-        <f>AVERAGE('Test 0'!C11,'Test 1'!C11,'Test 2'!C11,'Test 3'!C11,'Test 4'!C11)</f>
-        <v>1.2428888888888889E-3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <f>AVERAGE('Test 0'!E11,'Test 1'!E11,'Test 2'!E11,'Test 3'!E11,'Test 4'!E11)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="F11">
-        <f>AVERAGE('Test 0'!F11,'Test 1'!F11,'Test 2'!F11,'Test 3'!F11,'Test 4'!F11)</f>
-        <v>122386.8</v>
-      </c>
-      <c r="G11">
-        <f>AVERAGE('Test 0'!G11,'Test 1'!G11,'Test 2'!G11,'Test 3'!G11,'Test 4'!G11)</f>
-        <v>5640.2</v>
-      </c>
-      <c r="H11">
-        <f>AVERAGE('Test 0'!H11,'Test 1'!H11,'Test 2'!H11,'Test 3'!H11,'Test 4'!H11)</f>
-        <v>128027</v>
-      </c>
-      <c r="I11">
-        <f>AVERAGE('Test 0'!I11,'Test 1'!I11,'Test 2'!I11,'Test 3'!I11,'Test 4'!I11)</f>
-        <v>215708.4</v>
-      </c>
-      <c r="J11">
-        <f>AVERAGE('Test 0'!J11,'Test 1'!J11,'Test 2'!J11,'Test 3'!J11,'Test 4'!J11)</f>
-        <v>122372.8</v>
-      </c>
-      <c r="K11">
-        <f>AVERAGE('Test 0'!K11,'Test 1'!K11,'Test 2'!K11,'Test 3'!K11,'Test 4'!K11)</f>
-        <v>93335.6</v>
-      </c>
-      <c r="L11">
-        <f>AVERAGE('Test 0'!L11,'Test 1'!L11,'Test 2'!L11,'Test 3'!L11,'Test 4'!L11)</f>
-        <v>36.6</v>
-      </c>
-      <c r="M11">
-        <f>AVERAGE('Test 0'!M11,'Test 1'!M11,'Test 2'!M11,'Test 3'!M11,'Test 4'!M11)</f>
-        <v>22.6</v>
-      </c>
-      <c r="N11">
-        <f>AVERAGE('Test 0'!N11,'Test 1'!N11,'Test 2'!N11,'Test 3'!N11,'Test 4'!N11)</f>
-        <v>14</v>
-      </c>
-      <c r="O11">
-        <f>AVERAGE('Test 0'!O11,'Test 1'!O11,'Test 2'!O11,'Test 3'!O11,'Test 4'!O11)</f>
-        <v>0.99983035528053887</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <f>AVERAGE('Test 0'!B12,'Test 1'!B12,'Test 2'!B12,'Test 3'!B12,'Test 4'!B12)</f>
-        <v>35</v>
-      </c>
-      <c r="C12">
-        <f>AVERAGE('Test 0'!C12,'Test 1'!C12,'Test 2'!C12,'Test 3'!C12,'Test 4'!C12)</f>
-        <v>1.2428888888888889E-3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <f>AVERAGE('Test 0'!E12,'Test 1'!E12,'Test 2'!E12,'Test 3'!E12,'Test 4'!E12)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="F12">
-        <f>AVERAGE('Test 0'!F12,'Test 1'!F12,'Test 2'!F12,'Test 3'!F12,'Test 4'!F12)</f>
-        <v>122386.8</v>
-      </c>
-      <c r="G12">
-        <f>AVERAGE('Test 0'!G12,'Test 1'!G12,'Test 2'!G12,'Test 3'!G12,'Test 4'!G12)</f>
-        <v>5640.2</v>
-      </c>
-      <c r="H12">
-        <f>AVERAGE('Test 0'!H12,'Test 1'!H12,'Test 2'!H12,'Test 3'!H12,'Test 4'!H12)</f>
-        <v>128027</v>
-      </c>
-      <c r="I12">
-        <f>AVERAGE('Test 0'!I12,'Test 1'!I12,'Test 2'!I12,'Test 3'!I12,'Test 4'!I12)</f>
-        <v>215699.4</v>
-      </c>
-      <c r="J12">
-        <f>AVERAGE('Test 0'!J12,'Test 1'!J12,'Test 2'!J12,'Test 3'!J12,'Test 4'!J12)</f>
-        <v>122368.2</v>
-      </c>
-      <c r="K12">
-        <f>AVERAGE('Test 0'!K12,'Test 1'!K12,'Test 2'!K12,'Test 3'!K12,'Test 4'!K12)</f>
-        <v>93331.199999999997</v>
-      </c>
-      <c r="L12">
-        <f>AVERAGE('Test 0'!L12,'Test 1'!L12,'Test 2'!L12,'Test 3'!L12,'Test 4'!L12)</f>
-        <v>45.6</v>
-      </c>
-      <c r="M12">
-        <f>AVERAGE('Test 0'!M12,'Test 1'!M12,'Test 2'!M12,'Test 3'!M12,'Test 4'!M12)</f>
-        <v>27</v>
-      </c>
-      <c r="N12">
-        <f>AVERAGE('Test 0'!N12,'Test 1'!N12,'Test 2'!N12,'Test 3'!N12,'Test 4'!N12)</f>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="O12">
-        <f>AVERAGE('Test 0'!O12,'Test 1'!O12,'Test 2'!O12,'Test 3'!O12,'Test 4'!O12)</f>
-        <v>0.99978863936591789</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <f>AVERAGE('Test 0'!B13,'Test 1'!B13,'Test 2'!B13,'Test 3'!B13,'Test 4'!B13)</f>
-        <v>35</v>
-      </c>
-      <c r="C13">
-        <f>AVERAGE('Test 0'!C13,'Test 1'!C13,'Test 2'!C13,'Test 3'!C13,'Test 4'!C13)</f>
-        <v>1.2428888888888889E-3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <f>AVERAGE('Test 0'!E13,'Test 1'!E13,'Test 2'!E13,'Test 3'!E13,'Test 4'!E13)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="F13">
-        <f>AVERAGE('Test 0'!F13,'Test 1'!F13,'Test 2'!F13,'Test 3'!F13,'Test 4'!F13)</f>
-        <v>122386.8</v>
-      </c>
-      <c r="G13">
-        <f>AVERAGE('Test 0'!G13,'Test 1'!G13,'Test 2'!G13,'Test 3'!G13,'Test 4'!G13)</f>
-        <v>5640.2</v>
-      </c>
-      <c r="H13">
-        <f>AVERAGE('Test 0'!H13,'Test 1'!H13,'Test 2'!H13,'Test 3'!H13,'Test 4'!H13)</f>
-        <v>128027</v>
-      </c>
-      <c r="I13">
-        <f>AVERAGE('Test 0'!I13,'Test 1'!I13,'Test 2'!I13,'Test 3'!I13,'Test 4'!I13)</f>
-        <v>215684.6</v>
-      </c>
-      <c r="J13">
-        <f>AVERAGE('Test 0'!J13,'Test 1'!J13,'Test 2'!J13,'Test 3'!J13,'Test 4'!J13)</f>
-        <v>122366.8</v>
-      </c>
-      <c r="K13">
-        <f>AVERAGE('Test 0'!K13,'Test 1'!K13,'Test 2'!K13,'Test 3'!K13,'Test 4'!K13)</f>
-        <v>93317.8</v>
-      </c>
-      <c r="L13">
-        <f>AVERAGE('Test 0'!L13,'Test 1'!L13,'Test 2'!L13,'Test 3'!L13,'Test 4'!L13)</f>
-        <v>60.4</v>
-      </c>
-      <c r="M13">
-        <f>AVERAGE('Test 0'!M13,'Test 1'!M13,'Test 2'!M13,'Test 3'!M13,'Test 4'!M13)</f>
-        <v>40.4</v>
-      </c>
-      <c r="N13">
-        <f>AVERAGE('Test 0'!N13,'Test 1'!N13,'Test 2'!N13,'Test 3'!N13,'Test 4'!N13)</f>
-        <v>20</v>
-      </c>
       <c r="O13">
-        <f>AVERAGE('Test 0'!O13,'Test 1'!O13,'Test 2'!O13,'Test 3'!O13,'Test 4'!O13)</f>
-        <v>0.99972003986187397</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <f>AVERAGE('Test 0'!O6,'Test 1'!O6,'Test 2'!O6,'Test 3'!O6,'Test 4'!O6)*100</f>
+        <v>99.366937820111659</v>
+      </c>
+      <c r="P13">
+        <f>AVERAGE('Test 0'!P6,'Test 1'!P6,'Test 2'!P6,'Test 3'!P6,'Test 4'!Q6)</f>
+        <v>99.584435052162803</v>
+      </c>
+      <c r="Q13">
+        <f>AVERAGE('Test 0'!Q6,'Test 1'!Q6,'Test 2'!Q6,'Test 3'!Q6,'Test 4'!R6)</f>
+        <v>99.675358033808408</v>
+      </c>
+      <c r="R13">
+        <f>AVERAGE('Test 0'!R6,'Test 1'!R6,'Test 2'!R6,'Test 3'!R6,'Test 4'!S6)</f>
+        <v>99.028603460517729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7874,7 +9853,7 @@
         <f>AVERAGE('Test 0'!B14,'Test 1'!B14,'Test 2'!B14,'Test 3'!B14,'Test 4'!B14)</f>
         <v>35</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <f>AVERAGE('Test 0'!C14,'Test 1'!C14,'Test 2'!C14,'Test 3'!C14,'Test 4'!C14)</f>
         <v>1.2428888888888889E-3</v>
       </c>
@@ -7922,11 +9901,23 @@
         <v>35.200000000000003</v>
       </c>
       <c r="O14">
-        <f>AVERAGE('Test 0'!O14,'Test 1'!O14,'Test 2'!O14,'Test 3'!O14,'Test 4'!O14)</f>
-        <v>0.99392060070916988</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <f>AVERAGE('Test 0'!O14,'Test 1'!O14,'Test 2'!O14,'Test 3'!O14,'Test 4'!O14)*100</f>
+        <v>99.392060070916983</v>
+      </c>
+      <c r="P14">
+        <f>AVERAGE('Test 0'!P14,'Test 1'!P14,'Test 2'!P14,'Test 3'!P14,'Test 4'!Q14)</f>
+        <v>99.581325973996371</v>
+      </c>
+      <c r="Q14">
+        <f>AVERAGE('Test 0'!Q14,'Test 1'!Q14,'Test 2'!Q14,'Test 3'!Q14,'Test 4'!R14)</f>
+        <v>99.743873803199932</v>
+      </c>
+      <c r="R14">
+        <f>AVERAGE('Test 0'!R14,'Test 1'!R14,'Test 2'!R14,'Test 3'!R14,'Test 4'!S14)</f>
+        <v>98.997720546400615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7934,7 +9925,7 @@
         <f>AVERAGE('Test 0'!B15,'Test 1'!B15,'Test 2'!B15,'Test 3'!B15,'Test 4'!B15)</f>
         <v>35</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <f>AVERAGE('Test 0'!C15,'Test 1'!C15,'Test 2'!C15,'Test 3'!C15,'Test 4'!C15)</f>
         <v>1.2428888888888889E-3</v>
       </c>
@@ -7982,791 +9973,962 @@
         <v>117.2</v>
       </c>
       <c r="O15">
-        <f>AVERAGE('Test 0'!O15,'Test 1'!O15,'Test 2'!O15,'Test 3'!O15,'Test 4'!O15)</f>
-        <v>0.99354423045725238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <f>AVERAGE('Test 0'!O15,'Test 1'!O15,'Test 2'!O15,'Test 3'!O15,'Test 4'!O15)*100</f>
+        <v>99.354423045725241</v>
+      </c>
+      <c r="P15">
+        <f>AVERAGE('Test 0'!P15,'Test 1'!P15,'Test 2'!P15,'Test 3'!P15,'Test 4'!Q15)</f>
+        <v>99.558871559224457</v>
+      </c>
+      <c r="Q15">
+        <f>AVERAGE('Test 0'!Q15,'Test 1'!Q15,'Test 2'!Q15,'Test 3'!Q15,'Test 4'!R15)</f>
+        <v>99.655499538792995</v>
+      </c>
+      <c r="R15">
+        <f>AVERAGE('Test 0'!R15,'Test 1'!R15,'Test 2'!R15,'Test 3'!R15,'Test 4'!S15)</f>
+        <v>99.024258863218506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <f>AVERAGE('Test 0'!B24,'Test 1'!B24,'Test 2'!B24,'Test 3'!B24,'Test 4'!B24)</f>
+        <v>21</v>
+      </c>
+      <c r="C16" s="4">
+        <f>AVERAGE('Test 0'!C24,'Test 1'!C24,'Test 2'!C24,'Test 3'!C24,'Test 4'!C24)</f>
+        <v>1.2416782407407407E-3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <f>AVERAGE('Test 0'!E24,'Test 1'!E24,'Test 2'!E24,'Test 3'!E24,'Test 4'!E24)</f>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f>AVERAGE('Test 0'!F24,'Test 1'!F24,'Test 2'!F24,'Test 3'!F24,'Test 4'!F24)</f>
+        <v>122386.8</v>
+      </c>
+      <c r="G16">
+        <f>AVERAGE('Test 0'!G24,'Test 1'!G24,'Test 2'!G24,'Test 3'!G24,'Test 4'!G24)</f>
+        <v>5640.2</v>
+      </c>
+      <c r="H16">
+        <f>AVERAGE('Test 0'!H24,'Test 1'!H24,'Test 2'!H24,'Test 3'!H24,'Test 4'!H24)</f>
+        <v>128027</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE('Test 0'!I24,'Test 1'!I24,'Test 2'!I24,'Test 3'!I24,'Test 4'!I24)</f>
+        <v>214199.8</v>
+      </c>
+      <c r="J16">
+        <f>AVERAGE('Test 0'!J24,'Test 1'!J24,'Test 2'!J24,'Test 3'!J24,'Test 4'!J24)</f>
+        <v>122295.2</v>
+      </c>
+      <c r="K16">
+        <f>AVERAGE('Test 0'!K24,'Test 1'!K24,'Test 2'!K24,'Test 3'!K24,'Test 4'!K24)</f>
+        <v>91904.6</v>
+      </c>
+      <c r="L16">
+        <f>AVERAGE('Test 0'!L24,'Test 1'!L24,'Test 2'!L24,'Test 3'!L24,'Test 4'!L24)</f>
+        <v>1545.2</v>
+      </c>
+      <c r="M16">
+        <f>AVERAGE('Test 0'!M24,'Test 1'!M24,'Test 2'!M24,'Test 3'!M24,'Test 4'!M24)</f>
+        <v>1453.6</v>
+      </c>
+      <c r="N16">
+        <f>AVERAGE('Test 0'!N24,'Test 1'!N24,'Test 2'!N24,'Test 3'!N24,'Test 4'!N24)</f>
+        <v>91.6</v>
+      </c>
+      <c r="O16">
+        <f>AVERAGE('Test 0'!O24,'Test 1'!O24,'Test 2'!O24,'Test 3'!O24,'Test 4'!O24)*100</f>
+        <v>99.283784096966272</v>
+      </c>
+      <c r="P16">
+        <f>AVERAGE('Test 0'!P24,'Test 1'!P24,'Test 2'!P24,'Test 3'!P24,'Test 4'!Q24)</f>
+        <v>99.518026197761813</v>
+      </c>
+      <c r="Q16">
+        <f>AVERAGE('Test 0'!Q24,'Test 1'!Q24,'Test 2'!Q24,'Test 3'!Q24,'Test 4'!R24)</f>
+        <v>99.636003652804874</v>
+      </c>
+      <c r="R16">
+        <f>AVERAGE('Test 0'!R24,'Test 1'!R24,'Test 2'!R24,'Test 3'!R24,'Test 4'!S24)</f>
+        <v>98.897872471988052</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <f>AVERAGE('Test 0'!B7,'Test 1'!B7,'Test 2'!B7,'Test 3'!B7,'Test 4'!B7)</f>
+        <v>49</v>
+      </c>
+      <c r="C17" s="4">
+        <f>AVERAGE('Test 0'!C7,'Test 1'!C7,'Test 2'!C7,'Test 3'!C7,'Test 4'!C7)</f>
+        <v>1.2447939814814817E-3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <f>AVERAGE('Test 0'!E7,'Test 1'!E7,'Test 2'!E7,'Test 3'!E7,'Test 4'!E7)</f>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f>AVERAGE('Test 0'!F7,'Test 1'!F7,'Test 2'!F7,'Test 3'!F7,'Test 4'!F7)</f>
+        <v>122386.8</v>
+      </c>
+      <c r="G17">
+        <f>AVERAGE('Test 0'!G7,'Test 1'!G7,'Test 2'!G7,'Test 3'!G7,'Test 4'!G7)</f>
+        <v>5640.2</v>
+      </c>
+      <c r="H17">
+        <f>AVERAGE('Test 0'!H7,'Test 1'!H7,'Test 2'!H7,'Test 3'!H7,'Test 4'!H7)</f>
+        <v>128027</v>
+      </c>
+      <c r="I17">
+        <f>AVERAGE('Test 0'!I7,'Test 1'!I7,'Test 2'!I7,'Test 3'!I7,'Test 4'!I7)</f>
+        <v>213896.4</v>
+      </c>
+      <c r="J17">
+        <f>AVERAGE('Test 0'!J7,'Test 1'!J7,'Test 2'!J7,'Test 3'!J7,'Test 4'!J7)</f>
+        <v>122349</v>
+      </c>
+      <c r="K17">
+        <f>AVERAGE('Test 0'!K7,'Test 1'!K7,'Test 2'!K7,'Test 3'!K7,'Test 4'!K7)</f>
+        <v>91547.4</v>
+      </c>
+      <c r="L17">
+        <f>AVERAGE('Test 0'!L7,'Test 1'!L7,'Test 2'!L7,'Test 3'!L7,'Test 4'!L7)</f>
+        <v>1848.6</v>
+      </c>
+      <c r="M17">
+        <f>AVERAGE('Test 0'!M7,'Test 1'!M7,'Test 2'!M7,'Test 3'!M7,'Test 4'!M7)</f>
+        <v>1810.8</v>
+      </c>
+      <c r="N17">
+        <f>AVERAGE('Test 0'!N7,'Test 1'!N7,'Test 2'!N7,'Test 3'!N7,'Test 4'!N7)</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="O17">
+        <f>AVERAGE('Test 0'!O7,'Test 1'!O7,'Test 2'!O7,'Test 3'!O7,'Test 4'!O7)*100</f>
+        <v>99.143155113675832</v>
+      </c>
+      <c r="P17">
+        <f>AVERAGE('Test 0'!P7,'Test 1'!P7,'Test 2'!P7,'Test 3'!P7,'Test 4'!Q7)</f>
+        <v>99.423158506576911</v>
+      </c>
+      <c r="Q17">
+        <f>AVERAGE('Test 0'!Q7,'Test 1'!Q7,'Test 2'!Q7,'Test 3'!Q7,'Test 4'!R7)</f>
+        <v>99.62628141285262</v>
+      </c>
+      <c r="R17">
+        <f>AVERAGE('Test 0'!R7,'Test 1'!R7,'Test 2'!R7,'Test 3'!R7,'Test 4'!S7)</f>
+        <v>98.609265592722366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <f>AVERAGE('Test 0'!B16,'Test 1'!B16,'Test 2'!B16,'Test 3'!B16,'Test 4'!B16)</f>
         <v>35</v>
       </c>
-      <c r="C16">
+      <c r="C18" s="4">
         <f>AVERAGE('Test 0'!C16,'Test 1'!C16,'Test 2'!C16,'Test 3'!C16,'Test 4'!C16)</f>
         <v>1.2428888888888889E-3</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <f>AVERAGE('Test 0'!E16,'Test 1'!E16,'Test 2'!E16,'Test 3'!E16,'Test 4'!E16)</f>
         <v>1</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <f>AVERAGE('Test 0'!F16,'Test 1'!F16,'Test 2'!F16,'Test 3'!F16,'Test 4'!F16)</f>
         <v>122386.8</v>
       </c>
-      <c r="G16">
+      <c r="G18">
         <f>AVERAGE('Test 0'!G16,'Test 1'!G16,'Test 2'!G16,'Test 3'!G16,'Test 4'!G16)</f>
         <v>5640.2</v>
       </c>
-      <c r="H16">
+      <c r="H18">
         <f>AVERAGE('Test 0'!H16,'Test 1'!H16,'Test 2'!H16,'Test 3'!H16,'Test 4'!H16)</f>
         <v>128027</v>
       </c>
-      <c r="I16">
+      <c r="I18">
         <f>AVERAGE('Test 0'!I16,'Test 1'!I16,'Test 2'!I16,'Test 3'!I16,'Test 4'!I16)</f>
         <v>213872</v>
       </c>
-      <c r="J16">
+      <c r="J18">
         <f>AVERAGE('Test 0'!J16,'Test 1'!J16,'Test 2'!J16,'Test 3'!J16,'Test 4'!J16)</f>
         <v>122322.4</v>
       </c>
-      <c r="K16">
+      <c r="K18">
         <f>AVERAGE('Test 0'!K16,'Test 1'!K16,'Test 2'!K16,'Test 3'!K16,'Test 4'!K16)</f>
         <v>91549.6</v>
       </c>
-      <c r="L16">
+      <c r="L18">
         <f>AVERAGE('Test 0'!L16,'Test 1'!L16,'Test 2'!L16,'Test 3'!L16,'Test 4'!L16)</f>
         <v>1873</v>
       </c>
-      <c r="M16">
+      <c r="M18">
         <f>AVERAGE('Test 0'!M16,'Test 1'!M16,'Test 2'!M16,'Test 3'!M16,'Test 4'!M16)</f>
         <v>1808.6</v>
       </c>
-      <c r="N16">
+      <c r="N18">
         <f>AVERAGE('Test 0'!N16,'Test 1'!N16,'Test 2'!N16,'Test 3'!N16,'Test 4'!N16)</f>
         <v>64.400000000000006</v>
       </c>
-      <c r="O16">
-        <f>AVERAGE('Test 0'!O16,'Test 1'!O16,'Test 2'!O16,'Test 3'!O16,'Test 4'!O16)</f>
-        <v>0.99131845465711765</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="O18">
+        <f>AVERAGE('Test 0'!O16,'Test 1'!O16,'Test 2'!O16,'Test 3'!O16,'Test 4'!O16)*100</f>
+        <v>99.131845465711763</v>
+      </c>
+      <c r="P18">
+        <f>AVERAGE('Test 0'!P16,'Test 1'!P16,'Test 2'!P16,'Test 3'!P16,'Test 4'!Q16)</f>
+        <v>99.419035628458772</v>
+      </c>
+      <c r="Q18">
+        <f>AVERAGE('Test 0'!Q16,'Test 1'!Q16,'Test 2'!Q16,'Test 3'!Q16,'Test 4'!R16)</f>
+        <v>99.593032289742098</v>
+      </c>
+      <c r="R18">
+        <f>AVERAGE('Test 0'!R16,'Test 1'!R16,'Test 2'!R16,'Test 3'!R16,'Test 4'!S16)</f>
+        <v>98.625517604104203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <f>AVERAGE('Test 0'!B25,'Test 1'!B25,'Test 2'!B25,'Test 3'!B25,'Test 4'!B25)</f>
+        <v>21</v>
+      </c>
+      <c r="C19" s="4">
+        <f>AVERAGE('Test 0'!C25,'Test 1'!C25,'Test 2'!C25,'Test 3'!C25,'Test 4'!C25)</f>
+        <v>1.2416782407407407E-3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <f>AVERAGE('Test 0'!E25,'Test 1'!E25,'Test 2'!E25,'Test 3'!E25,'Test 4'!E25)</f>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f>AVERAGE('Test 0'!F25,'Test 1'!F25,'Test 2'!F25,'Test 3'!F25,'Test 4'!F25)</f>
+        <v>122386.8</v>
+      </c>
+      <c r="G19">
+        <f>AVERAGE('Test 0'!G25,'Test 1'!G25,'Test 2'!G25,'Test 3'!G25,'Test 4'!G25)</f>
+        <v>5640.2</v>
+      </c>
+      <c r="H19">
+        <f>AVERAGE('Test 0'!H25,'Test 1'!H25,'Test 2'!H25,'Test 3'!H25,'Test 4'!H25)</f>
+        <v>128027</v>
+      </c>
+      <c r="I19">
+        <f>AVERAGE('Test 0'!I25,'Test 1'!I25,'Test 2'!I25,'Test 3'!I25,'Test 4'!I25)</f>
+        <v>213853.4</v>
+      </c>
+      <c r="J19">
+        <f>AVERAGE('Test 0'!J25,'Test 1'!J25,'Test 2'!J25,'Test 3'!J25,'Test 4'!J25)</f>
+        <v>122236</v>
+      </c>
+      <c r="K19">
+        <f>AVERAGE('Test 0'!K25,'Test 1'!K25,'Test 2'!K25,'Test 3'!K25,'Test 4'!K25)</f>
+        <v>91617.4</v>
+      </c>
+      <c r="L19">
+        <f>AVERAGE('Test 0'!L25,'Test 1'!L25,'Test 2'!L25,'Test 3'!L25,'Test 4'!L25)</f>
+        <v>1891.6</v>
+      </c>
+      <c r="M19">
+        <f>AVERAGE('Test 0'!M25,'Test 1'!M25,'Test 2'!M25,'Test 3'!M25,'Test 4'!M25)</f>
+        <v>1740.8</v>
+      </c>
+      <c r="N19">
+        <f>AVERAGE('Test 0'!N25,'Test 1'!N25,'Test 2'!N25,'Test 3'!N25,'Test 4'!N25)</f>
+        <v>150.80000000000001</v>
+      </c>
+      <c r="O19">
+        <f>AVERAGE('Test 0'!O25,'Test 1'!O25,'Test 2'!O25,'Test 3'!O25,'Test 4'!O25)*100</f>
+        <v>99.12322417669003</v>
+      </c>
+      <c r="P19">
+        <f>AVERAGE('Test 0'!P25,'Test 1'!P25,'Test 2'!P25,'Test 3'!P25,'Test 4'!Q25)</f>
+        <v>99.401463101936997</v>
+      </c>
+      <c r="Q19">
+        <f>AVERAGE('Test 0'!Q25,'Test 1'!Q25,'Test 2'!Q25,'Test 3'!Q25,'Test 4'!R25)</f>
+        <v>99.54123120271916</v>
+      </c>
+      <c r="R19">
+        <f>AVERAGE('Test 0'!R25,'Test 1'!R25,'Test 2'!R25,'Test 3'!R25,'Test 4'!S25)</f>
+        <v>98.668182339820561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <f>AVERAGE('Test 0'!B8,'Test 1'!B8,'Test 2'!B8,'Test 3'!B8,'Test 4'!B8)</f>
+        <v>49</v>
+      </c>
+      <c r="C20" s="4">
+        <f>AVERAGE('Test 0'!C8,'Test 1'!C8,'Test 2'!C8,'Test 3'!C8,'Test 4'!C8)</f>
+        <v>1.2447939814814817E-3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <f>AVERAGE('Test 0'!E8,'Test 1'!E8,'Test 2'!E8,'Test 3'!E8,'Test 4'!E8)</f>
+        <v>10</v>
+      </c>
+      <c r="F20" s="5">
+        <f>AVERAGE('Test 0'!F8,'Test 1'!F8,'Test 2'!F8,'Test 3'!F8,'Test 4'!F8)</f>
+        <v>122386.8</v>
+      </c>
+      <c r="G20">
+        <f>AVERAGE('Test 0'!G8,'Test 1'!G8,'Test 2'!G8,'Test 3'!G8,'Test 4'!G8)</f>
+        <v>5640.2</v>
+      </c>
+      <c r="H20">
+        <f>AVERAGE('Test 0'!H8,'Test 1'!H8,'Test 2'!H8,'Test 3'!H8,'Test 4'!H8)</f>
+        <v>128027</v>
+      </c>
+      <c r="I20">
+        <f>AVERAGE('Test 0'!I8,'Test 1'!I8,'Test 2'!I8,'Test 3'!I8,'Test 4'!I8)</f>
+        <v>211907.4</v>
+      </c>
+      <c r="J20">
+        <f>AVERAGE('Test 0'!J8,'Test 1'!J8,'Test 2'!J8,'Test 3'!J8,'Test 4'!J8)</f>
+        <v>122367</v>
+      </c>
+      <c r="K20">
+        <f>AVERAGE('Test 0'!K8,'Test 1'!K8,'Test 2'!K8,'Test 3'!K8,'Test 4'!K8)</f>
+        <v>89540.4</v>
+      </c>
+      <c r="L20">
+        <f>AVERAGE('Test 0'!L8,'Test 1'!L8,'Test 2'!L8,'Test 3'!L8,'Test 4'!L8)</f>
+        <v>3837.6</v>
+      </c>
+      <c r="M20">
+        <f>AVERAGE('Test 0'!M8,'Test 1'!M8,'Test 2'!M8,'Test 3'!M8,'Test 4'!M8)</f>
+        <v>3817.8</v>
+      </c>
+      <c r="N20">
+        <f>AVERAGE('Test 0'!N8,'Test 1'!N8,'Test 2'!N8,'Test 3'!N8,'Test 4'!N8)</f>
+        <v>19.8</v>
+      </c>
+      <c r="O20">
+        <f>AVERAGE('Test 0'!O8,'Test 1'!O8,'Test 2'!O8,'Test 3'!O8,'Test 4'!O8)*100</f>
+        <v>98.22123340054226</v>
+      </c>
+      <c r="P20">
+        <f>AVERAGE('Test 0'!P8,'Test 1'!P8,'Test 2'!P8,'Test 3'!P8,'Test 4'!Q8)</f>
+        <v>98.808350319613197</v>
+      </c>
+      <c r="Q20">
+        <f>AVERAGE('Test 0'!Q8,'Test 1'!Q8,'Test 2'!Q8,'Test 3'!Q8,'Test 4'!R8)</f>
+        <v>99.292020889538804</v>
+      </c>
+      <c r="R20">
+        <f>AVERAGE('Test 0'!R8,'Test 1'!R8,'Test 2'!R8,'Test 3'!R8,'Test 4'!S8)</f>
+        <v>97.087368032739278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <f>AVERAGE('Test 0'!B9,'Test 1'!B9,'Test 2'!B9,'Test 3'!B9,'Test 4'!B9)</f>
+        <v>49</v>
+      </c>
+      <c r="C21" s="4">
+        <f>AVERAGE('Test 0'!C9,'Test 1'!C9,'Test 2'!C9,'Test 3'!C9,'Test 4'!C9)</f>
+        <v>1.2447939814814817E-3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <f>AVERAGE('Test 0'!E9,'Test 1'!E9,'Test 2'!E9,'Test 3'!E9,'Test 4'!E9)</f>
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <f>AVERAGE('Test 0'!F9,'Test 1'!F9,'Test 2'!F9,'Test 3'!F9,'Test 4'!F9)</f>
+        <v>122386.8</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE('Test 0'!G9,'Test 1'!G9,'Test 2'!G9,'Test 3'!G9,'Test 4'!G9)</f>
+        <v>5640.2</v>
+      </c>
+      <c r="H21">
+        <f>AVERAGE('Test 0'!H9,'Test 1'!H9,'Test 2'!H9,'Test 3'!H9,'Test 4'!H9)</f>
+        <v>128027</v>
+      </c>
+      <c r="I21">
+        <f>AVERAGE('Test 0'!I9,'Test 1'!I9,'Test 2'!I9,'Test 3'!I9,'Test 4'!I9)</f>
+        <v>211879.6</v>
+      </c>
+      <c r="J21">
+        <f>AVERAGE('Test 0'!J9,'Test 1'!J9,'Test 2'!J9,'Test 3'!J9,'Test 4'!J9)</f>
+        <v>122365.8</v>
+      </c>
+      <c r="K21">
+        <f>AVERAGE('Test 0'!K9,'Test 1'!K9,'Test 2'!K9,'Test 3'!K9,'Test 4'!K9)</f>
+        <v>89513.8</v>
+      </c>
+      <c r="L21">
+        <f>AVERAGE('Test 0'!L9,'Test 1'!L9,'Test 2'!L9,'Test 3'!L9,'Test 4'!L9)</f>
+        <v>3865.4</v>
+      </c>
+      <c r="M21">
+        <f>AVERAGE('Test 0'!M9,'Test 1'!M9,'Test 2'!M9,'Test 3'!M9,'Test 4'!M9)</f>
+        <v>3844.4</v>
+      </c>
+      <c r="N21">
+        <f>AVERAGE('Test 0'!N9,'Test 1'!N9,'Test 2'!N9,'Test 3'!N9,'Test 4'!N9)</f>
+        <v>21</v>
+      </c>
+      <c r="O21">
+        <f>AVERAGE('Test 0'!O9,'Test 1'!O9,'Test 2'!O9,'Test 3'!O9,'Test 4'!O9)*100</f>
+        <v>98.208347818025885</v>
+      </c>
+      <c r="P21">
+        <f>AVERAGE('Test 0'!P9,'Test 1'!P9,'Test 2'!P9,'Test 3'!P9,'Test 4'!Q9)</f>
+        <v>98.800072762054953</v>
+      </c>
+      <c r="Q21">
+        <f>AVERAGE('Test 0'!Q9,'Test 1'!Q9,'Test 2'!Q9,'Test 3'!Q9,'Test 4'!R9)</f>
+        <v>99.286319098599236</v>
+      </c>
+      <c r="R21">
+        <f>AVERAGE('Test 0'!R9,'Test 1'!R9,'Test 2'!R9,'Test 3'!R9,'Test 4'!S9)</f>
+        <v>97.069188033284917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <f>AVERAGE('Test 0'!B27,'Test 1'!B27,'Test 2'!B27,'Test 3'!B27,'Test 4'!B27)</f>
+        <v>21</v>
+      </c>
+      <c r="C22" s="4">
+        <f>AVERAGE('Test 0'!C27,'Test 1'!C27,'Test 2'!C27,'Test 3'!C27,'Test 4'!C27)</f>
+        <v>1.2416782407407407E-3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <f>AVERAGE('Test 0'!E27,'Test 1'!E27,'Test 2'!E27,'Test 3'!E27,'Test 4'!E27)</f>
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <f>AVERAGE('Test 0'!F27,'Test 1'!F27,'Test 2'!F27,'Test 3'!F27,'Test 4'!F27)</f>
+        <v>122386.8</v>
+      </c>
+      <c r="G22">
+        <f>AVERAGE('Test 0'!G27,'Test 1'!G27,'Test 2'!G27,'Test 3'!G27,'Test 4'!G27)</f>
+        <v>5640.2</v>
+      </c>
+      <c r="H22">
+        <f>AVERAGE('Test 0'!H27,'Test 1'!H27,'Test 2'!H27,'Test 3'!H27,'Test 4'!H27)</f>
+        <v>128027</v>
+      </c>
+      <c r="I22">
+        <f>AVERAGE('Test 0'!I27,'Test 1'!I27,'Test 2'!I27,'Test 3'!I27,'Test 4'!I27)</f>
+        <v>211723</v>
+      </c>
+      <c r="J22">
+        <f>AVERAGE('Test 0'!J27,'Test 1'!J27,'Test 2'!J27,'Test 3'!J27,'Test 4'!J27)</f>
+        <v>122367.8</v>
+      </c>
+      <c r="K22">
+        <f>AVERAGE('Test 0'!K27,'Test 1'!K27,'Test 2'!K27,'Test 3'!K27,'Test 4'!K27)</f>
+        <v>89355.199999999997</v>
+      </c>
+      <c r="L22">
+        <f>AVERAGE('Test 0'!L27,'Test 1'!L27,'Test 2'!L27,'Test 3'!L27,'Test 4'!L27)</f>
+        <v>4022</v>
+      </c>
+      <c r="M22">
+        <f>AVERAGE('Test 0'!M27,'Test 1'!M27,'Test 2'!M27,'Test 3'!M27,'Test 4'!M27)</f>
+        <v>4003</v>
+      </c>
+      <c r="N22">
+        <f>AVERAGE('Test 0'!N27,'Test 1'!N27,'Test 2'!N27,'Test 3'!N27,'Test 4'!N27)</f>
+        <v>19</v>
+      </c>
+      <c r="O22">
+        <f>AVERAGE('Test 0'!O27,'Test 1'!O27,'Test 2'!O27,'Test 3'!O27,'Test 4'!O27)*100</f>
+        <v>98.135762126584567</v>
+      </c>
+      <c r="P22">
+        <f>AVERAGE('Test 0'!P27,'Test 1'!P27,'Test 2'!P27,'Test 3'!P27,'Test 4'!Q27)</f>
+        <v>98.73088449615949</v>
+      </c>
+      <c r="Q22">
+        <f>AVERAGE('Test 0'!Q27,'Test 1'!Q27,'Test 2'!Q27,'Test 3'!Q27,'Test 4'!R27)</f>
+        <v>99.301209384727628</v>
+      </c>
+      <c r="R22">
+        <f>AVERAGE('Test 0'!R27,'Test 1'!R27,'Test 2'!R27,'Test 3'!R27,'Test 4'!S27)</f>
+        <v>96.898735494622343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <f>AVERAGE('Test 0'!B26,'Test 1'!B26,'Test 2'!B26,'Test 3'!B26,'Test 4'!B26)</f>
+        <v>21</v>
+      </c>
+      <c r="C23" s="4">
+        <f>AVERAGE('Test 0'!C26,'Test 1'!C26,'Test 2'!C26,'Test 3'!C26,'Test 4'!C26)</f>
+        <v>1.2416782407407407E-3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <f>AVERAGE('Test 0'!E26,'Test 1'!E26,'Test 2'!E26,'Test 3'!E26,'Test 4'!E26)</f>
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGE('Test 0'!F26,'Test 1'!F26,'Test 2'!F26,'Test 3'!F26,'Test 4'!F26)</f>
+        <v>122386.8</v>
+      </c>
+      <c r="G23">
+        <f>AVERAGE('Test 0'!G26,'Test 1'!G26,'Test 2'!G26,'Test 3'!G26,'Test 4'!G26)</f>
+        <v>5640.2</v>
+      </c>
+      <c r="H23">
+        <f>AVERAGE('Test 0'!H26,'Test 1'!H26,'Test 2'!H26,'Test 3'!H26,'Test 4'!H26)</f>
+        <v>128027</v>
+      </c>
+      <c r="I23">
+        <f>AVERAGE('Test 0'!I26,'Test 1'!I26,'Test 2'!I26,'Test 3'!I26,'Test 4'!I26)</f>
+        <v>211640.8</v>
+      </c>
+      <c r="J23">
+        <f>AVERAGE('Test 0'!J26,'Test 1'!J26,'Test 2'!J26,'Test 3'!J26,'Test 4'!J26)</f>
+        <v>122368.6</v>
+      </c>
+      <c r="K23">
+        <f>AVERAGE('Test 0'!K26,'Test 1'!K26,'Test 2'!K26,'Test 3'!K26,'Test 4'!K26)</f>
+        <v>89272.2</v>
+      </c>
+      <c r="L23">
+        <f>AVERAGE('Test 0'!L26,'Test 1'!L26,'Test 2'!L26,'Test 3'!L26,'Test 4'!L26)</f>
+        <v>4104.2</v>
+      </c>
+      <c r="M23">
+        <f>AVERAGE('Test 0'!M26,'Test 1'!M26,'Test 2'!M26,'Test 3'!M26,'Test 4'!M26)</f>
+        <v>4086</v>
+      </c>
+      <c r="N23">
+        <f>AVERAGE('Test 0'!N26,'Test 1'!N26,'Test 2'!N26,'Test 3'!N26,'Test 4'!N26)</f>
+        <v>18.2</v>
+      </c>
+      <c r="O23">
+        <f>AVERAGE('Test 0'!O26,'Test 1'!O26,'Test 2'!O26,'Test 3'!O26,'Test 4'!O26)*100</f>
+        <v>98.097661591230306</v>
+      </c>
+      <c r="P23">
+        <f>AVERAGE('Test 0'!P26,'Test 1'!P26,'Test 2'!P26,'Test 3'!P26,'Test 4'!Q26)</f>
+        <v>98.722367361767283</v>
+      </c>
+      <c r="Q23">
+        <f>AVERAGE('Test 0'!Q26,'Test 1'!Q26,'Test 2'!Q26,'Test 3'!Q26,'Test 4'!R26)</f>
+        <v>99.255620950757503</v>
+      </c>
+      <c r="R23">
+        <f>AVERAGE('Test 0'!R26,'Test 1'!R26,'Test 2'!R26,'Test 3'!R26,'Test 4'!S26)</f>
+        <v>96.877166828455159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <f>AVERAGE('Test 0'!B18,'Test 1'!B18,'Test 2'!B18,'Test 3'!B18,'Test 4'!B18)</f>
+        <v>35</v>
+      </c>
+      <c r="C24" s="4">
+        <f>AVERAGE('Test 0'!C18,'Test 1'!C18,'Test 2'!C18,'Test 3'!C18,'Test 4'!C18)</f>
+        <v>1.2428888888888889E-3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <f>AVERAGE('Test 0'!E18,'Test 1'!E18,'Test 2'!E18,'Test 3'!E18,'Test 4'!E18)</f>
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <f>AVERAGE('Test 0'!F18,'Test 1'!F18,'Test 2'!F18,'Test 3'!F18,'Test 4'!F18)</f>
+        <v>122386.8</v>
+      </c>
+      <c r="G24">
+        <f>AVERAGE('Test 0'!G18,'Test 1'!G18,'Test 2'!G18,'Test 3'!G18,'Test 4'!G18)</f>
+        <v>5640.2</v>
+      </c>
+      <c r="H24">
+        <f>AVERAGE('Test 0'!H18,'Test 1'!H18,'Test 2'!H18,'Test 3'!H18,'Test 4'!H18)</f>
+        <v>128027</v>
+      </c>
+      <c r="I24">
+        <f>AVERAGE('Test 0'!I18,'Test 1'!I18,'Test 2'!I18,'Test 3'!I18,'Test 4'!I18)</f>
+        <v>211728.4</v>
+      </c>
+      <c r="J24">
+        <f>AVERAGE('Test 0'!J18,'Test 1'!J18,'Test 2'!J18,'Test 3'!J18,'Test 4'!J18)</f>
+        <v>122367.8</v>
+      </c>
+      <c r="K24">
+        <f>AVERAGE('Test 0'!K18,'Test 1'!K18,'Test 2'!K18,'Test 3'!K18,'Test 4'!K18)</f>
+        <v>89360.6</v>
+      </c>
+      <c r="L24">
+        <f>AVERAGE('Test 0'!L18,'Test 1'!L18,'Test 2'!L18,'Test 3'!L18,'Test 4'!L18)</f>
+        <v>4016.6</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE('Test 0'!M18,'Test 1'!M18,'Test 2'!M18,'Test 3'!M18,'Test 4'!M18)</f>
+        <v>3997.6</v>
+      </c>
+      <c r="N24">
+        <f>AVERAGE('Test 0'!N18,'Test 1'!N18,'Test 2'!N18,'Test 3'!N18,'Test 4'!N18)</f>
+        <v>19</v>
+      </c>
+      <c r="O24">
+        <f>AVERAGE('Test 0'!O18,'Test 1'!O18,'Test 2'!O18,'Test 3'!O18,'Test 4'!O18)*100</f>
+        <v>98.138265081461853</v>
+      </c>
+      <c r="P24">
+        <f>AVERAGE('Test 0'!P18,'Test 1'!P18,'Test 2'!P18,'Test 3'!P18,'Test 4'!Q18)</f>
+        <v>98.714359438119004</v>
+      </c>
+      <c r="Q24">
+        <f>AVERAGE('Test 0'!Q18,'Test 1'!Q18,'Test 2'!Q18,'Test 3'!Q18,'Test 4'!R18)</f>
+        <v>99.33741417024558</v>
+      </c>
+      <c r="R24">
+        <f>AVERAGE('Test 0'!R18,'Test 1'!R18,'Test 2'!R18,'Test 3'!R18,'Test 4'!S18)</f>
+        <v>96.858921476226527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B25">
         <f>AVERAGE('Test 0'!B17,'Test 1'!B17,'Test 2'!B17,'Test 3'!B17,'Test 4'!B17)</f>
         <v>35</v>
       </c>
-      <c r="C17">
+      <c r="C25" s="4">
         <f>AVERAGE('Test 0'!C17,'Test 1'!C17,'Test 2'!C17,'Test 3'!C17,'Test 4'!C17)</f>
         <v>1.2428888888888889E-3</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="E17">
+      <c r="E25">
         <f>AVERAGE('Test 0'!E17,'Test 1'!E17,'Test 2'!E17,'Test 3'!E17,'Test 4'!E17)</f>
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F25">
         <f>AVERAGE('Test 0'!F17,'Test 1'!F17,'Test 2'!F17,'Test 3'!F17,'Test 4'!F17)</f>
         <v>122386.8</v>
       </c>
-      <c r="G17">
+      <c r="G25">
         <f>AVERAGE('Test 0'!G17,'Test 1'!G17,'Test 2'!G17,'Test 3'!G17,'Test 4'!G17)</f>
         <v>5640.2</v>
       </c>
-      <c r="H17">
+      <c r="H25">
         <f>AVERAGE('Test 0'!H17,'Test 1'!H17,'Test 2'!H17,'Test 3'!H17,'Test 4'!H17)</f>
         <v>128027</v>
       </c>
-      <c r="I17">
+      <c r="I25">
         <f>AVERAGE('Test 0'!I17,'Test 1'!I17,'Test 2'!I17,'Test 3'!I17,'Test 4'!I17)</f>
         <v>211575.2</v>
       </c>
-      <c r="J17">
+      <c r="J25">
         <f>AVERAGE('Test 0'!J17,'Test 1'!J17,'Test 2'!J17,'Test 3'!J17,'Test 4'!J17)</f>
         <v>122368.6</v>
       </c>
-      <c r="K17">
+      <c r="K25">
         <f>AVERAGE('Test 0'!K17,'Test 1'!K17,'Test 2'!K17,'Test 3'!K17,'Test 4'!K17)</f>
         <v>89206.6</v>
       </c>
-      <c r="L17">
+      <c r="L25">
         <f>AVERAGE('Test 0'!L17,'Test 1'!L17,'Test 2'!L17,'Test 3'!L17,'Test 4'!L17)</f>
         <v>4169.8</v>
       </c>
-      <c r="M17">
+      <c r="M25">
         <f>AVERAGE('Test 0'!M17,'Test 1'!M17,'Test 2'!M17,'Test 3'!M17,'Test 4'!M17)</f>
         <v>4151.6000000000004</v>
       </c>
-      <c r="N17">
+      <c r="N25">
         <f>AVERAGE('Test 0'!N17,'Test 1'!N17,'Test 2'!N17,'Test 3'!N17,'Test 4'!N17)</f>
         <v>18.2</v>
       </c>
-      <c r="O17">
-        <f>AVERAGE('Test 0'!O17,'Test 1'!O17,'Test 2'!O17,'Test 3'!O17,'Test 4'!O17)</f>
-        <v>0.98067255324572966</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <f>AVERAGE('Test 0'!B18,'Test 1'!B18,'Test 2'!B18,'Test 3'!B18,'Test 4'!B18)</f>
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <f>AVERAGE('Test 0'!C18,'Test 1'!C18,'Test 2'!C18,'Test 3'!C18,'Test 4'!C18)</f>
-        <v>1.2428888888888889E-3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <f>AVERAGE('Test 0'!E18,'Test 1'!E18,'Test 2'!E18,'Test 3'!E18,'Test 4'!E18)</f>
+      <c r="O25">
+        <f>AVERAGE('Test 0'!O17,'Test 1'!O17,'Test 2'!O17,'Test 3'!O17,'Test 4'!O17)*100</f>
+        <v>98.067255324572969</v>
+      </c>
+      <c r="P25">
+        <f>AVERAGE('Test 0'!P17,'Test 1'!P17,'Test 2'!P17,'Test 3'!P17,'Test 4'!Q17)</f>
+        <v>98.676692090141771</v>
+      </c>
+      <c r="Q25">
+        <f>AVERAGE('Test 0'!Q17,'Test 1'!Q17,'Test 2'!Q17,'Test 3'!Q17,'Test 4'!R17)</f>
+        <v>99.293632725679288</v>
+      </c>
+      <c r="R25">
+        <f>AVERAGE('Test 0'!R17,'Test 1'!R17,'Test 2'!R17,'Test 3'!R17,'Test 4'!S17)</f>
+        <v>96.766650662199851</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <f>AVERAGE('Test 0'!B10,'Test 1'!B10,'Test 2'!B10,'Test 3'!B10,'Test 4'!B10)</f>
+        <v>49</v>
+      </c>
+      <c r="C26" s="4">
+        <f>AVERAGE('Test 0'!C10,'Test 1'!C10,'Test 2'!C10,'Test 3'!C10,'Test 4'!C10)</f>
+        <v>1.2447939814814817E-3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <f>AVERAGE('Test 0'!E10,'Test 1'!E10,'Test 2'!E10,'Test 3'!E10,'Test 4'!E10)</f>
         <v>10</v>
       </c>
-      <c r="F18">
-        <f>AVERAGE('Test 0'!F18,'Test 1'!F18,'Test 2'!F18,'Test 3'!F18,'Test 4'!F18)</f>
+      <c r="F26">
+        <f>AVERAGE('Test 0'!F10,'Test 1'!F10,'Test 2'!F10,'Test 3'!F10,'Test 4'!F10)</f>
         <v>122386.8</v>
       </c>
-      <c r="G18">
-        <f>AVERAGE('Test 0'!G18,'Test 1'!G18,'Test 2'!G18,'Test 3'!G18,'Test 4'!G18)</f>
+      <c r="G26">
+        <f>AVERAGE('Test 0'!G10,'Test 1'!G10,'Test 2'!G10,'Test 3'!G10,'Test 4'!G10)</f>
         <v>5640.2</v>
       </c>
-      <c r="H18">
-        <f>AVERAGE('Test 0'!H18,'Test 1'!H18,'Test 2'!H18,'Test 3'!H18,'Test 4'!H18)</f>
-        <v>128027</v>
-      </c>
-      <c r="I18">
-        <f>AVERAGE('Test 0'!I18,'Test 1'!I18,'Test 2'!I18,'Test 3'!I18,'Test 4'!I18)</f>
-        <v>211728.4</v>
-      </c>
-      <c r="J18">
-        <f>AVERAGE('Test 0'!J18,'Test 1'!J18,'Test 2'!J18,'Test 3'!J18,'Test 4'!J18)</f>
-        <v>122367.8</v>
-      </c>
-      <c r="K18">
-        <f>AVERAGE('Test 0'!K18,'Test 1'!K18,'Test 2'!K18,'Test 3'!K18,'Test 4'!K18)</f>
-        <v>89360.6</v>
-      </c>
-      <c r="L18">
-        <f>AVERAGE('Test 0'!L18,'Test 1'!L18,'Test 2'!L18,'Test 3'!L18,'Test 4'!L18)</f>
-        <v>4016.6</v>
-      </c>
-      <c r="M18">
-        <f>AVERAGE('Test 0'!M18,'Test 1'!M18,'Test 2'!M18,'Test 3'!M18,'Test 4'!M18)</f>
-        <v>3997.6</v>
-      </c>
-      <c r="N18">
-        <f>AVERAGE('Test 0'!N18,'Test 1'!N18,'Test 2'!N18,'Test 3'!N18,'Test 4'!N18)</f>
-        <v>19</v>
-      </c>
-      <c r="O18">
-        <f>AVERAGE('Test 0'!O18,'Test 1'!O18,'Test 2'!O18,'Test 3'!O18,'Test 4'!O18)</f>
-        <v>0.98138265081461851</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="H26">
+        <f>AVERAGE('Test 0'!H10,'Test 1'!H10,'Test 2'!H10,'Test 3'!H10,'Test 4'!H10)</f>
+        <v>128027</v>
+      </c>
+      <c r="I26">
+        <f>AVERAGE('Test 0'!I10,'Test 1'!I10,'Test 2'!I10,'Test 3'!I10,'Test 4'!I10)</f>
+        <v>211217</v>
+      </c>
+      <c r="J26">
+        <f>AVERAGE('Test 0'!J10,'Test 1'!J10,'Test 2'!J10,'Test 3'!J10,'Test 4'!J10)</f>
+        <v>122368.6</v>
+      </c>
+      <c r="K26">
+        <f>AVERAGE('Test 0'!K10,'Test 1'!K10,'Test 2'!K10,'Test 3'!K10,'Test 4'!K10)</f>
+        <v>88848.4</v>
+      </c>
+      <c r="L26">
+        <f>AVERAGE('Test 0'!L10,'Test 1'!L10,'Test 2'!L10,'Test 3'!L10,'Test 4'!L10)</f>
+        <v>4528</v>
+      </c>
+      <c r="M26">
+        <f>AVERAGE('Test 0'!M10,'Test 1'!M10,'Test 2'!M10,'Test 3'!M10,'Test 4'!M10)</f>
+        <v>4509.8</v>
+      </c>
+      <c r="N26">
+        <f>AVERAGE('Test 0'!N10,'Test 1'!N10,'Test 2'!N10,'Test 3'!N10,'Test 4'!N10)</f>
+        <v>18.2</v>
+      </c>
+      <c r="O26">
+        <f>AVERAGE('Test 0'!O10,'Test 1'!O10,'Test 2'!O10,'Test 3'!O10,'Test 4'!O10)*100</f>
+        <v>97.901225984379664</v>
+      </c>
+      <c r="P26">
+        <f>AVERAGE('Test 0'!P10,'Test 1'!P10,'Test 2'!P10,'Test 3'!P10,'Test 4'!Q10)</f>
+        <v>98.626126977328084</v>
+      </c>
+      <c r="Q26">
+        <f>AVERAGE('Test 0'!Q10,'Test 1'!Q10,'Test 2'!Q10,'Test 3'!Q10,'Test 4'!R10)</f>
+        <v>99.119859617071256</v>
+      </c>
+      <c r="R26">
+        <f>AVERAGE('Test 0'!R10,'Test 1'!R10,'Test 2'!R10,'Test 3'!R10,'Test 4'!S10)</f>
+        <v>96.644328048101258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE('Test 0'!B28,'Test 1'!B28,'Test 2'!B28,'Test 3'!B28,'Test 4'!B28)</f>
+        <v>21</v>
+      </c>
+      <c r="C27" s="4">
+        <f>AVERAGE('Test 0'!C28,'Test 1'!C28,'Test 2'!C28,'Test 3'!C28,'Test 4'!C28)</f>
+        <v>1.2416782407407407E-3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE('Test 0'!E28,'Test 1'!E28,'Test 2'!E28,'Test 3'!E28,'Test 4'!E28)</f>
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <f>AVERAGE('Test 0'!F28,'Test 1'!F28,'Test 2'!F28,'Test 3'!F28,'Test 4'!F28)</f>
+        <v>122386.8</v>
+      </c>
+      <c r="G27">
+        <f>AVERAGE('Test 0'!G28,'Test 1'!G28,'Test 2'!G28,'Test 3'!G28,'Test 4'!G28)</f>
+        <v>5640.2</v>
+      </c>
+      <c r="H27">
+        <f>AVERAGE('Test 0'!H28,'Test 1'!H28,'Test 2'!H28,'Test 3'!H28,'Test 4'!H28)</f>
+        <v>128027</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE('Test 0'!I28,'Test 1'!I28,'Test 2'!I28,'Test 3'!I28,'Test 4'!I28)</f>
+        <v>211127.2</v>
+      </c>
+      <c r="J27">
+        <f>AVERAGE('Test 0'!J28,'Test 1'!J28,'Test 2'!J28,'Test 3'!J28,'Test 4'!J28)</f>
+        <v>122368.6</v>
+      </c>
+      <c r="K27">
+        <f>AVERAGE('Test 0'!K28,'Test 1'!K28,'Test 2'!K28,'Test 3'!K28,'Test 4'!K28)</f>
+        <v>88758.6</v>
+      </c>
+      <c r="L27">
+        <f>AVERAGE('Test 0'!L28,'Test 1'!L28,'Test 2'!L28,'Test 3'!L28,'Test 4'!L28)</f>
+        <v>4617.8</v>
+      </c>
+      <c r="M27">
+        <f>AVERAGE('Test 0'!M28,'Test 1'!M28,'Test 2'!M28,'Test 3'!M28,'Test 4'!M28)</f>
+        <v>4599.6000000000004</v>
+      </c>
+      <c r="N27">
+        <f>AVERAGE('Test 0'!N28,'Test 1'!N28,'Test 2'!N28,'Test 3'!N28,'Test 4'!N28)</f>
+        <v>18.2</v>
+      </c>
+      <c r="O27">
+        <f>AVERAGE('Test 0'!O28,'Test 1'!O28,'Test 2'!O28,'Test 3'!O28,'Test 4'!O28)*100</f>
+        <v>97.859602771790733</v>
+      </c>
+      <c r="P27">
+        <f>AVERAGE('Test 0'!P28,'Test 1'!P28,'Test 2'!P28,'Test 3'!P28,'Test 4'!Q28)</f>
+        <v>98.570491600507495</v>
+      </c>
+      <c r="Q27">
+        <f>AVERAGE('Test 0'!Q28,'Test 1'!Q28,'Test 2'!Q28,'Test 3'!Q28,'Test 4'!R28)</f>
+        <v>99.15838857477911</v>
+      </c>
+      <c r="R27">
+        <f>AVERAGE('Test 0'!R28,'Test 1'!R28,'Test 2'!R28,'Test 3'!R28,'Test 4'!S28)</f>
+        <v>96.510076137206426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B28">
         <f>AVERAGE('Test 0'!B19,'Test 1'!B19,'Test 2'!B19,'Test 3'!B19,'Test 4'!B19)</f>
         <v>35</v>
       </c>
-      <c r="C19">
+      <c r="C28" s="4">
         <f>AVERAGE('Test 0'!C19,'Test 1'!C19,'Test 2'!C19,'Test 3'!C19,'Test 4'!C19)</f>
         <v>1.2428888888888889E-3</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D28" t="s">
         <v>13</v>
       </c>
-      <c r="E19">
+      <c r="E28">
         <f>AVERAGE('Test 0'!E19,'Test 1'!E19,'Test 2'!E19,'Test 3'!E19,'Test 4'!E19)</f>
         <v>10</v>
       </c>
-      <c r="F19">
+      <c r="F28">
         <f>AVERAGE('Test 0'!F19,'Test 1'!F19,'Test 2'!F19,'Test 3'!F19,'Test 4'!F19)</f>
         <v>122386.8</v>
       </c>
-      <c r="G19">
+      <c r="G28">
         <f>AVERAGE('Test 0'!G19,'Test 1'!G19,'Test 2'!G19,'Test 3'!G19,'Test 4'!G19)</f>
         <v>5640.2</v>
       </c>
-      <c r="H19">
+      <c r="H28">
         <f>AVERAGE('Test 0'!H19,'Test 1'!H19,'Test 2'!H19,'Test 3'!H19,'Test 4'!H19)</f>
         <v>128027</v>
       </c>
-      <c r="I19">
+      <c r="I28">
         <f>AVERAGE('Test 0'!I19,'Test 1'!I19,'Test 2'!I19,'Test 3'!I19,'Test 4'!I19)</f>
         <v>211087.4</v>
       </c>
-      <c r="J19">
+      <c r="J28">
         <f>AVERAGE('Test 0'!J19,'Test 1'!J19,'Test 2'!J19,'Test 3'!J19,'Test 4'!J19)</f>
         <v>122368.6</v>
       </c>
-      <c r="K19">
+      <c r="K28">
         <f>AVERAGE('Test 0'!K19,'Test 1'!K19,'Test 2'!K19,'Test 3'!K19,'Test 4'!K19)</f>
         <v>88718.8</v>
       </c>
-      <c r="L19">
+      <c r="L28">
         <f>AVERAGE('Test 0'!L19,'Test 1'!L19,'Test 2'!L19,'Test 3'!L19,'Test 4'!L19)</f>
         <v>4657.6000000000004</v>
       </c>
-      <c r="M19">
+      <c r="M28">
         <f>AVERAGE('Test 0'!M19,'Test 1'!M19,'Test 2'!M19,'Test 3'!M19,'Test 4'!M19)</f>
         <v>4639.3999999999996</v>
       </c>
-      <c r="N19">
+      <c r="N28">
         <f>AVERAGE('Test 0'!N19,'Test 1'!N19,'Test 2'!N19,'Test 3'!N19,'Test 4'!N19)</f>
         <v>18.2</v>
       </c>
-      <c r="O19">
-        <f>AVERAGE('Test 0'!O19,'Test 1'!O19,'Test 2'!O19,'Test 3'!O19,'Test 4'!O19)</f>
-        <v>0.97841155067324836</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <f>AVERAGE('Test 0'!B20,'Test 1'!B20,'Test 2'!B20,'Test 3'!B20,'Test 4'!B20)</f>
-        <v>21</v>
-      </c>
-      <c r="C20">
-        <f>AVERAGE('Test 0'!C20,'Test 1'!C20,'Test 2'!C20,'Test 3'!C20,'Test 4'!C20)</f>
-        <v>1.2416782407407407E-3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20">
-        <f>AVERAGE('Test 0'!E20,'Test 1'!E20,'Test 2'!E20,'Test 3'!E20,'Test 4'!E20)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="F20">
-        <f>AVERAGE('Test 0'!F20,'Test 1'!F20,'Test 2'!F20,'Test 3'!F20,'Test 4'!F20)</f>
-        <v>122386.8</v>
-      </c>
-      <c r="G20">
-        <f>AVERAGE('Test 0'!G20,'Test 1'!G20,'Test 2'!G20,'Test 3'!G20,'Test 4'!G20)</f>
-        <v>5640.2</v>
-      </c>
-      <c r="H20">
-        <f>AVERAGE('Test 0'!H20,'Test 1'!H20,'Test 2'!H20,'Test 3'!H20,'Test 4'!H20)</f>
-        <v>128027</v>
-      </c>
-      <c r="I20">
-        <f>AVERAGE('Test 0'!I20,'Test 1'!I20,'Test 2'!I20,'Test 3'!I20,'Test 4'!I20)</f>
-        <v>215703.8</v>
-      </c>
-      <c r="J20">
-        <f>AVERAGE('Test 0'!J20,'Test 1'!J20,'Test 2'!J20,'Test 3'!J20,'Test 4'!J20)</f>
-        <v>122371</v>
-      </c>
-      <c r="K20">
-        <f>AVERAGE('Test 0'!K20,'Test 1'!K20,'Test 2'!K20,'Test 3'!K20,'Test 4'!K20)</f>
-        <v>93332.800000000003</v>
-      </c>
-      <c r="L20">
-        <f>AVERAGE('Test 0'!L20,'Test 1'!L20,'Test 2'!L20,'Test 3'!L20,'Test 4'!L20)</f>
-        <v>41.2</v>
-      </c>
-      <c r="M20">
-        <f>AVERAGE('Test 0'!M20,'Test 1'!M20,'Test 2'!M20,'Test 3'!M20,'Test 4'!M20)</f>
-        <v>25.4</v>
-      </c>
-      <c r="N20">
-        <f>AVERAGE('Test 0'!N20,'Test 1'!N20,'Test 2'!N20,'Test 3'!N20,'Test 4'!N20)</f>
-        <v>15.8</v>
-      </c>
-      <c r="O20">
-        <f>AVERAGE('Test 0'!O20,'Test 1'!O20,'Test 2'!O20,'Test 3'!O20,'Test 4'!O20)</f>
-        <v>0.99980903381306574</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <f>AVERAGE('Test 0'!B21,'Test 1'!B21,'Test 2'!B21,'Test 3'!B21,'Test 4'!B21)</f>
-        <v>21</v>
-      </c>
-      <c r="C21">
-        <f>AVERAGE('Test 0'!C21,'Test 1'!C21,'Test 2'!C21,'Test 3'!C21,'Test 4'!C21)</f>
-        <v>1.2416782407407407E-3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21">
-        <f>AVERAGE('Test 0'!E21,'Test 1'!E21,'Test 2'!E21,'Test 3'!E21,'Test 4'!E21)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="F21">
-        <f>AVERAGE('Test 0'!F21,'Test 1'!F21,'Test 2'!F21,'Test 3'!F21,'Test 4'!F21)</f>
-        <v>122386.8</v>
-      </c>
-      <c r="G21">
-        <f>AVERAGE('Test 0'!G21,'Test 1'!G21,'Test 2'!G21,'Test 3'!G21,'Test 4'!G21)</f>
-        <v>5640.2</v>
-      </c>
-      <c r="H21">
-        <f>AVERAGE('Test 0'!H21,'Test 1'!H21,'Test 2'!H21,'Test 3'!H21,'Test 4'!H21)</f>
-        <v>128027</v>
-      </c>
-      <c r="I21">
-        <f>AVERAGE('Test 0'!I21,'Test 1'!I21,'Test 2'!I21,'Test 3'!I21,'Test 4'!I21)</f>
-        <v>215706.2</v>
-      </c>
-      <c r="J21">
-        <f>AVERAGE('Test 0'!J21,'Test 1'!J21,'Test 2'!J21,'Test 3'!J21,'Test 4'!J21)</f>
-        <v>122370.4</v>
-      </c>
-      <c r="K21">
-        <f>AVERAGE('Test 0'!K21,'Test 1'!K21,'Test 2'!K21,'Test 3'!K21,'Test 4'!K21)</f>
-        <v>93335.8</v>
-      </c>
-      <c r="L21">
-        <f>AVERAGE('Test 0'!L21,'Test 1'!L21,'Test 2'!L21,'Test 3'!L21,'Test 4'!L21)</f>
-        <v>38.799999999999997</v>
-      </c>
-      <c r="M21">
-        <f>AVERAGE('Test 0'!M21,'Test 1'!M21,'Test 2'!M21,'Test 3'!M21,'Test 4'!M21)</f>
-        <v>22.4</v>
-      </c>
-      <c r="N21">
-        <f>AVERAGE('Test 0'!N21,'Test 1'!N21,'Test 2'!N21,'Test 3'!N21,'Test 4'!N21)</f>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="O21">
-        <f>AVERAGE('Test 0'!O21,'Test 1'!O21,'Test 2'!O21,'Test 3'!O21,'Test 4'!O21)</f>
-        <v>0.99982015805696489</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <f>AVERAGE('Test 0'!B22,'Test 1'!B22,'Test 2'!B22,'Test 3'!B22,'Test 4'!B22)</f>
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <f>AVERAGE('Test 0'!C22,'Test 1'!C22,'Test 2'!C22,'Test 3'!C22,'Test 4'!C22)</f>
-        <v>1.2416782407407407E-3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22">
-        <f>AVERAGE('Test 0'!E22,'Test 1'!E22,'Test 2'!E22,'Test 3'!E22,'Test 4'!E22)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="F22">
-        <f>AVERAGE('Test 0'!F22,'Test 1'!F22,'Test 2'!F22,'Test 3'!F22,'Test 4'!F22)</f>
-        <v>122386.8</v>
-      </c>
-      <c r="G22">
-        <f>AVERAGE('Test 0'!G22,'Test 1'!G22,'Test 2'!G22,'Test 3'!G22,'Test 4'!G22)</f>
-        <v>5640.2</v>
-      </c>
-      <c r="H22">
-        <f>AVERAGE('Test 0'!H22,'Test 1'!H22,'Test 2'!H22,'Test 3'!H22,'Test 4'!H22)</f>
-        <v>128027</v>
-      </c>
-      <c r="I22">
-        <f>AVERAGE('Test 0'!I22,'Test 1'!I22,'Test 2'!I22,'Test 3'!I22,'Test 4'!I22)</f>
-        <v>215702</v>
-      </c>
-      <c r="J22">
-        <f>AVERAGE('Test 0'!J22,'Test 1'!J22,'Test 2'!J22,'Test 3'!J22,'Test 4'!J22)</f>
-        <v>122372.8</v>
-      </c>
-      <c r="K22">
-        <f>AVERAGE('Test 0'!K22,'Test 1'!K22,'Test 2'!K22,'Test 3'!K22,'Test 4'!K22)</f>
-        <v>93329.2</v>
-      </c>
-      <c r="L22">
-        <f>AVERAGE('Test 0'!L22,'Test 1'!L22,'Test 2'!L22,'Test 3'!L22,'Test 4'!L22)</f>
-        <v>43</v>
-      </c>
-      <c r="M22">
-        <f>AVERAGE('Test 0'!M22,'Test 1'!M22,'Test 2'!M22,'Test 3'!M22,'Test 4'!M22)</f>
-        <v>29</v>
-      </c>
-      <c r="N22">
-        <f>AVERAGE('Test 0'!N22,'Test 1'!N22,'Test 2'!N22,'Test 3'!N22,'Test 4'!N22)</f>
-        <v>14</v>
-      </c>
-      <c r="O22">
-        <f>AVERAGE('Test 0'!O22,'Test 1'!O22,'Test 2'!O22,'Test 3'!O22,'Test 4'!O22)</f>
-        <v>0.99980069063014165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <f>AVERAGE('Test 0'!B23,'Test 1'!B23,'Test 2'!B23,'Test 3'!B23,'Test 4'!B23)</f>
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <f>AVERAGE('Test 0'!C23,'Test 1'!C23,'Test 2'!C23,'Test 3'!C23,'Test 4'!C23)</f>
-        <v>1.2416782407407407E-3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23">
-        <f>AVERAGE('Test 0'!E23,'Test 1'!E23,'Test 2'!E23,'Test 3'!E23,'Test 4'!E23)</f>
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <f>AVERAGE('Test 0'!F23,'Test 1'!F23,'Test 2'!F23,'Test 3'!F23,'Test 4'!F23)</f>
-        <v>122386.8</v>
-      </c>
-      <c r="G23">
-        <f>AVERAGE('Test 0'!G23,'Test 1'!G23,'Test 2'!G23,'Test 3'!G23,'Test 4'!G23)</f>
-        <v>5640.2</v>
-      </c>
-      <c r="H23">
-        <f>AVERAGE('Test 0'!H23,'Test 1'!H23,'Test 2'!H23,'Test 3'!H23,'Test 4'!H23)</f>
-        <v>128027</v>
-      </c>
-      <c r="I23">
-        <f>AVERAGE('Test 0'!I23,'Test 1'!I23,'Test 2'!I23,'Test 3'!I23,'Test 4'!I23)</f>
-        <v>214493.8</v>
-      </c>
-      <c r="J23">
-        <f>AVERAGE('Test 0'!J23,'Test 1'!J23,'Test 2'!J23,'Test 3'!J23,'Test 4'!J23)</f>
-        <v>122303.4</v>
-      </c>
-      <c r="K23">
-        <f>AVERAGE('Test 0'!K23,'Test 1'!K23,'Test 2'!K23,'Test 3'!K23,'Test 4'!K23)</f>
-        <v>92190.399999999994</v>
-      </c>
-      <c r="L23">
-        <f>AVERAGE('Test 0'!L23,'Test 1'!L23,'Test 2'!L23,'Test 3'!L23,'Test 4'!L23)</f>
-        <v>1251.2</v>
-      </c>
-      <c r="M23">
-        <f>AVERAGE('Test 0'!M23,'Test 1'!M23,'Test 2'!M23,'Test 3'!M23,'Test 4'!M23)</f>
-        <v>1167.8</v>
-      </c>
-      <c r="N23">
-        <f>AVERAGE('Test 0'!N23,'Test 1'!N23,'Test 2'!N23,'Test 3'!N23,'Test 4'!N23)</f>
-        <v>83.4</v>
-      </c>
-      <c r="O23">
-        <f>AVERAGE('Test 0'!O23,'Test 1'!O23,'Test 2'!O23,'Test 3'!O23,'Test 4'!O23)</f>
-        <v>0.99420056084729613</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <f>AVERAGE('Test 0'!B24,'Test 1'!B24,'Test 2'!B24,'Test 3'!B24,'Test 4'!B24)</f>
-        <v>21</v>
-      </c>
-      <c r="C24">
-        <f>AVERAGE('Test 0'!C24,'Test 1'!C24,'Test 2'!C24,'Test 3'!C24,'Test 4'!C24)</f>
-        <v>1.2416782407407407E-3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24">
-        <f>AVERAGE('Test 0'!E24,'Test 1'!E24,'Test 2'!E24,'Test 3'!E24,'Test 4'!E24)</f>
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <f>AVERAGE('Test 0'!F24,'Test 1'!F24,'Test 2'!F24,'Test 3'!F24,'Test 4'!F24)</f>
-        <v>122386.8</v>
-      </c>
-      <c r="G24">
-        <f>AVERAGE('Test 0'!G24,'Test 1'!G24,'Test 2'!G24,'Test 3'!G24,'Test 4'!G24)</f>
-        <v>5640.2</v>
-      </c>
-      <c r="H24">
-        <f>AVERAGE('Test 0'!H24,'Test 1'!H24,'Test 2'!H24,'Test 3'!H24,'Test 4'!H24)</f>
-        <v>128027</v>
-      </c>
-      <c r="I24">
-        <f>AVERAGE('Test 0'!I24,'Test 1'!I24,'Test 2'!I24,'Test 3'!I24,'Test 4'!I24)</f>
-        <v>214199.8</v>
-      </c>
-      <c r="J24">
-        <f>AVERAGE('Test 0'!J24,'Test 1'!J24,'Test 2'!J24,'Test 3'!J24,'Test 4'!J24)</f>
-        <v>122295.2</v>
-      </c>
-      <c r="K24">
-        <f>AVERAGE('Test 0'!K24,'Test 1'!K24,'Test 2'!K24,'Test 3'!K24,'Test 4'!K24)</f>
-        <v>91904.6</v>
-      </c>
-      <c r="L24">
-        <f>AVERAGE('Test 0'!L24,'Test 1'!L24,'Test 2'!L24,'Test 3'!L24,'Test 4'!L24)</f>
-        <v>1545.2</v>
-      </c>
-      <c r="M24">
-        <f>AVERAGE('Test 0'!M24,'Test 1'!M24,'Test 2'!M24,'Test 3'!M24,'Test 4'!M24)</f>
-        <v>1453.6</v>
-      </c>
-      <c r="N24">
-        <f>AVERAGE('Test 0'!N24,'Test 1'!N24,'Test 2'!N24,'Test 3'!N24,'Test 4'!N24)</f>
-        <v>91.6</v>
-      </c>
-      <c r="O24">
-        <f>AVERAGE('Test 0'!O24,'Test 1'!O24,'Test 2'!O24,'Test 3'!O24,'Test 4'!O24)</f>
-        <v>0.99283784096966277</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <f>AVERAGE('Test 0'!B25,'Test 1'!B25,'Test 2'!B25,'Test 3'!B25,'Test 4'!B25)</f>
-        <v>21</v>
-      </c>
-      <c r="C25">
-        <f>AVERAGE('Test 0'!C25,'Test 1'!C25,'Test 2'!C25,'Test 3'!C25,'Test 4'!C25)</f>
-        <v>1.2416782407407407E-3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25">
-        <f>AVERAGE('Test 0'!E25,'Test 1'!E25,'Test 2'!E25,'Test 3'!E25,'Test 4'!E25)</f>
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <f>AVERAGE('Test 0'!F25,'Test 1'!F25,'Test 2'!F25,'Test 3'!F25,'Test 4'!F25)</f>
-        <v>122386.8</v>
-      </c>
-      <c r="G25">
-        <f>AVERAGE('Test 0'!G25,'Test 1'!G25,'Test 2'!G25,'Test 3'!G25,'Test 4'!G25)</f>
-        <v>5640.2</v>
-      </c>
-      <c r="H25">
-        <f>AVERAGE('Test 0'!H25,'Test 1'!H25,'Test 2'!H25,'Test 3'!H25,'Test 4'!H25)</f>
-        <v>128027</v>
-      </c>
-      <c r="I25">
-        <f>AVERAGE('Test 0'!I25,'Test 1'!I25,'Test 2'!I25,'Test 3'!I25,'Test 4'!I25)</f>
-        <v>213853.4</v>
-      </c>
-      <c r="J25">
-        <f>AVERAGE('Test 0'!J25,'Test 1'!J25,'Test 2'!J25,'Test 3'!J25,'Test 4'!J25)</f>
-        <v>122236</v>
-      </c>
-      <c r="K25">
-        <f>AVERAGE('Test 0'!K25,'Test 1'!K25,'Test 2'!K25,'Test 3'!K25,'Test 4'!K25)</f>
-        <v>91617.4</v>
-      </c>
-      <c r="L25">
-        <f>AVERAGE('Test 0'!L25,'Test 1'!L25,'Test 2'!L25,'Test 3'!L25,'Test 4'!L25)</f>
-        <v>1891.6</v>
-      </c>
-      <c r="M25">
-        <f>AVERAGE('Test 0'!M25,'Test 1'!M25,'Test 2'!M25,'Test 3'!M25,'Test 4'!M25)</f>
-        <v>1740.8</v>
-      </c>
-      <c r="N25">
-        <f>AVERAGE('Test 0'!N25,'Test 1'!N25,'Test 2'!N25,'Test 3'!N25,'Test 4'!N25)</f>
-        <v>150.80000000000001</v>
-      </c>
-      <c r="O25">
-        <f>AVERAGE('Test 0'!O25,'Test 1'!O25,'Test 2'!O25,'Test 3'!O25,'Test 4'!O25)</f>
-        <v>0.99123224176690028</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <f>AVERAGE('Test 0'!B26,'Test 1'!B26,'Test 2'!B26,'Test 3'!B26,'Test 4'!B26)</f>
-        <v>21</v>
-      </c>
-      <c r="C26">
-        <f>AVERAGE('Test 0'!C26,'Test 1'!C26,'Test 2'!C26,'Test 3'!C26,'Test 4'!C26)</f>
-        <v>1.2416782407407407E-3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26">
-        <f>AVERAGE('Test 0'!E26,'Test 1'!E26,'Test 2'!E26,'Test 3'!E26,'Test 4'!E26)</f>
-        <v>10</v>
-      </c>
-      <c r="F26">
-        <f>AVERAGE('Test 0'!F26,'Test 1'!F26,'Test 2'!F26,'Test 3'!F26,'Test 4'!F26)</f>
-        <v>122386.8</v>
-      </c>
-      <c r="G26">
-        <f>AVERAGE('Test 0'!G26,'Test 1'!G26,'Test 2'!G26,'Test 3'!G26,'Test 4'!G26)</f>
-        <v>5640.2</v>
-      </c>
-      <c r="H26">
-        <f>AVERAGE('Test 0'!H26,'Test 1'!H26,'Test 2'!H26,'Test 3'!H26,'Test 4'!H26)</f>
-        <v>128027</v>
-      </c>
-      <c r="I26">
-        <f>AVERAGE('Test 0'!I26,'Test 1'!I26,'Test 2'!I26,'Test 3'!I26,'Test 4'!I26)</f>
-        <v>211640.8</v>
-      </c>
-      <c r="J26">
-        <f>AVERAGE('Test 0'!J26,'Test 1'!J26,'Test 2'!J26,'Test 3'!J26,'Test 4'!J26)</f>
-        <v>122368.6</v>
-      </c>
-      <c r="K26">
-        <f>AVERAGE('Test 0'!K26,'Test 1'!K26,'Test 2'!K26,'Test 3'!K26,'Test 4'!K26)</f>
-        <v>89272.2</v>
-      </c>
-      <c r="L26">
-        <f>AVERAGE('Test 0'!L26,'Test 1'!L26,'Test 2'!L26,'Test 3'!L26,'Test 4'!L26)</f>
-        <v>4104.2</v>
-      </c>
-      <c r="M26">
-        <f>AVERAGE('Test 0'!M26,'Test 1'!M26,'Test 2'!M26,'Test 3'!M26,'Test 4'!M26)</f>
-        <v>4086</v>
-      </c>
-      <c r="N26">
-        <f>AVERAGE('Test 0'!N26,'Test 1'!N26,'Test 2'!N26,'Test 3'!N26,'Test 4'!N26)</f>
-        <v>18.2</v>
-      </c>
-      <c r="O26">
-        <f>AVERAGE('Test 0'!O26,'Test 1'!O26,'Test 2'!O26,'Test 3'!O26,'Test 4'!O26)</f>
-        <v>0.98097661591230312</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <f>AVERAGE('Test 0'!B27,'Test 1'!B27,'Test 2'!B27,'Test 3'!B27,'Test 4'!B27)</f>
-        <v>21</v>
-      </c>
-      <c r="C27">
-        <f>AVERAGE('Test 0'!C27,'Test 1'!C27,'Test 2'!C27,'Test 3'!C27,'Test 4'!C27)</f>
-        <v>1.2416782407407407E-3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27">
-        <f>AVERAGE('Test 0'!E27,'Test 1'!E27,'Test 2'!E27,'Test 3'!E27,'Test 4'!E27)</f>
-        <v>10</v>
-      </c>
-      <c r="F27">
-        <f>AVERAGE('Test 0'!F27,'Test 1'!F27,'Test 2'!F27,'Test 3'!F27,'Test 4'!F27)</f>
-        <v>122386.8</v>
-      </c>
-      <c r="G27">
-        <f>AVERAGE('Test 0'!G27,'Test 1'!G27,'Test 2'!G27,'Test 3'!G27,'Test 4'!G27)</f>
-        <v>5640.2</v>
-      </c>
-      <c r="H27">
-        <f>AVERAGE('Test 0'!H27,'Test 1'!H27,'Test 2'!H27,'Test 3'!H27,'Test 4'!H27)</f>
-        <v>128027</v>
-      </c>
-      <c r="I27">
-        <f>AVERAGE('Test 0'!I27,'Test 1'!I27,'Test 2'!I27,'Test 3'!I27,'Test 4'!I27)</f>
-        <v>211723</v>
-      </c>
-      <c r="J27">
-        <f>AVERAGE('Test 0'!J27,'Test 1'!J27,'Test 2'!J27,'Test 3'!J27,'Test 4'!J27)</f>
-        <v>122367.8</v>
-      </c>
-      <c r="K27">
-        <f>AVERAGE('Test 0'!K27,'Test 1'!K27,'Test 2'!K27,'Test 3'!K27,'Test 4'!K27)</f>
-        <v>89355.199999999997</v>
-      </c>
-      <c r="L27">
-        <f>AVERAGE('Test 0'!L27,'Test 1'!L27,'Test 2'!L27,'Test 3'!L27,'Test 4'!L27)</f>
-        <v>4022</v>
-      </c>
-      <c r="M27">
-        <f>AVERAGE('Test 0'!M27,'Test 1'!M27,'Test 2'!M27,'Test 3'!M27,'Test 4'!M27)</f>
-        <v>4003</v>
-      </c>
-      <c r="N27">
-        <f>AVERAGE('Test 0'!N27,'Test 1'!N27,'Test 2'!N27,'Test 3'!N27,'Test 4'!N27)</f>
-        <v>19</v>
-      </c>
-      <c r="O27">
-        <f>AVERAGE('Test 0'!O27,'Test 1'!O27,'Test 2'!O27,'Test 3'!O27,'Test 4'!O27)</f>
-        <v>0.98135762126584569</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <f>AVERAGE('Test 0'!B28,'Test 1'!B28,'Test 2'!B28,'Test 3'!B28,'Test 4'!B28)</f>
-        <v>21</v>
-      </c>
-      <c r="C28">
-        <f>AVERAGE('Test 0'!C28,'Test 1'!C28,'Test 2'!C28,'Test 3'!C28,'Test 4'!C28)</f>
-        <v>1.2416782407407407E-3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28">
-        <f>AVERAGE('Test 0'!E28,'Test 1'!E28,'Test 2'!E28,'Test 3'!E28,'Test 4'!E28)</f>
-        <v>10</v>
-      </c>
-      <c r="F28">
-        <f>AVERAGE('Test 0'!F28,'Test 1'!F28,'Test 2'!F28,'Test 3'!F28,'Test 4'!F28)</f>
-        <v>122386.8</v>
-      </c>
-      <c r="G28">
-        <f>AVERAGE('Test 0'!G28,'Test 1'!G28,'Test 2'!G28,'Test 3'!G28,'Test 4'!G28)</f>
-        <v>5640.2</v>
-      </c>
-      <c r="H28">
-        <f>AVERAGE('Test 0'!H28,'Test 1'!H28,'Test 2'!H28,'Test 3'!H28,'Test 4'!H28)</f>
-        <v>128027</v>
-      </c>
-      <c r="I28">
-        <f>AVERAGE('Test 0'!I28,'Test 1'!I28,'Test 2'!I28,'Test 3'!I28,'Test 4'!I28)</f>
-        <v>211127.2</v>
-      </c>
-      <c r="J28">
-        <f>AVERAGE('Test 0'!J28,'Test 1'!J28,'Test 2'!J28,'Test 3'!J28,'Test 4'!J28)</f>
-        <v>122368.6</v>
-      </c>
-      <c r="K28">
-        <f>AVERAGE('Test 0'!K28,'Test 1'!K28,'Test 2'!K28,'Test 3'!K28,'Test 4'!K28)</f>
-        <v>88758.6</v>
-      </c>
-      <c r="L28">
-        <f>AVERAGE('Test 0'!L28,'Test 1'!L28,'Test 2'!L28,'Test 3'!L28,'Test 4'!L28)</f>
-        <v>4617.8</v>
-      </c>
-      <c r="M28">
-        <f>AVERAGE('Test 0'!M28,'Test 1'!M28,'Test 2'!M28,'Test 3'!M28,'Test 4'!M28)</f>
-        <v>4599.6000000000004</v>
-      </c>
-      <c r="N28">
-        <f>AVERAGE('Test 0'!N28,'Test 1'!N28,'Test 2'!N28,'Test 3'!N28,'Test 4'!N28)</f>
-        <v>18.2</v>
-      </c>
       <c r="O28">
-        <f>AVERAGE('Test 0'!O28,'Test 1'!O28,'Test 2'!O28,'Test 3'!O28,'Test 4'!O28)</f>
-        <v>0.97859602771790732</v>
+        <f>AVERAGE('Test 0'!O19,'Test 1'!O19,'Test 2'!O19,'Test 3'!O19,'Test 4'!O19)*100</f>
+        <v>97.841155067324834</v>
+      </c>
+      <c r="P28">
+        <f>AVERAGE('Test 0'!P19,'Test 1'!P19,'Test 2'!P19,'Test 3'!P19,'Test 4'!Q19)</f>
+        <v>98.558030562724397</v>
+      </c>
+      <c r="Q28">
+        <f>AVERAGE('Test 0'!Q19,'Test 1'!Q19,'Test 2'!Q19,'Test 3'!Q19,'Test 4'!R19)</f>
+        <v>99.152081409008048</v>
+      </c>
+      <c r="R28">
+        <f>AVERAGE('Test 0'!R19,'Test 1'!R19,'Test 2'!R19,'Test 3'!R19,'Test 4'!S19)</f>
+        <v>96.479789705738796</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>